--- a/Pin/Spresense_pin_function_ja.xlsx
+++ b/Pin/Spresense_pin_function_ja.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BBAB76-4EBE-4B9C-A4AA-EB983B348704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1308CA09-1F7B-482E-B22A-4FF48FFD5C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D4A1A96D-02BA-4FB2-8190-975445C70E49}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4097" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4097" uniqueCount="557">
   <si>
     <t>ピン</t>
     <phoneticPr fontId="1"/>
@@ -1386,10 +1386,6 @@
   </si>
   <si>
     <t xml:space="preserve">UART2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C0 </t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>EMMCA</t>
@@ -2102,6 +2098,13 @@
     <rPh sb="23" eb="25">
       <t>カクチョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I2S0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2S0 </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2317,16 +2320,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2363,12 +2372,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2698,9 +2701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7B511B-062A-4CC3-8039-57B02DC0E658}">
   <dimension ref="A1:AB196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB148" sqref="AB148"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2733,119 +2736,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19" t="s">
+      <c r="A1" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="K1" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30" t="s">
+      <c r="M1" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32" t="s">
-        <v>462</v>
-      </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="19" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="U1" s="27"/>
-      <c r="V1" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>547</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>451</v>
+      <c r="T1" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="U1" s="29"/>
+      <c r="V1" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="S2" s="17"/>
+        <v>459</v>
+      </c>
+      <c r="S2" s="19"/>
       <c r="T2" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>389</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W2" s="12" t="s">
         <v>7</v>
@@ -2856,9 +2859,9 @@
       <c r="Y2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
@@ -3291,7 +3294,7 @@
         <v>53</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>394</v>
+        <v>556</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>56</v>
@@ -3367,7 +3370,7 @@
         <v>53</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>394</v>
+        <v>555</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>56</v>
@@ -3443,16 +3446,16 @@
         <v>53</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>57</v>
       </c>
       <c r="V10" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="W10" s="9" t="s">
         <v>419</v>
-      </c>
-      <c r="W10" s="9" t="s">
-        <v>420</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>21</v>
@@ -3519,16 +3522,16 @@
         <v>53</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>57</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="X11" s="7" t="s">
         <v>22</v>
@@ -3743,7 +3746,7 @@
         <v>52</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U14" s="7" t="s">
         <v>58</v>
@@ -3752,7 +3755,7 @@
         <v>59</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="X14" s="7" t="s">
         <v>28</v>
@@ -3857,7 +3860,7 @@
         <v>28</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>28</v>
@@ -4117,7 +4120,7 @@
         <v>52</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>95</v>
@@ -4157,7 +4160,7 @@
         <v>375</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I20" s="7">
         <v>79</v>
@@ -4193,7 +4196,7 @@
         <v>52</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>95</v>
@@ -4269,7 +4272,7 @@
         <v>52</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>400</v>
+        <v>555</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>56</v>
@@ -4345,7 +4348,7 @@
         <v>52</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>400</v>
+        <v>555</v>
       </c>
       <c r="U22" s="7" t="s">
         <v>56</v>
@@ -4421,16 +4424,16 @@
         <v>52</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>57</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="W23" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="X23" s="7" t="s">
         <v>102</v>
@@ -4497,16 +4500,16 @@
         <v>52</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>57</v>
       </c>
       <c r="V24" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="W24" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X24" s="7" t="s">
         <v>103</v>
@@ -4647,7 +4650,7 @@
         <v>53</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U26" s="7" t="s">
         <v>96</v>
@@ -4656,7 +4659,7 @@
         <v>59</v>
       </c>
       <c r="W26" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X26" s="7" t="s">
         <v>28</v>
@@ -4723,7 +4726,7 @@
         <v>53</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>96</v>
@@ -4828,7 +4831,7 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="7">
@@ -4906,7 +4909,7 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="7">
@@ -4982,7 +4985,7 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="7">
@@ -4995,7 +4998,7 @@
         <v>28</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I31" s="7">
         <v>20</v>
@@ -5031,10 +5034,10 @@
         <v>52</v>
       </c>
       <c r="T31" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="U31" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="U31" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>59</v>
@@ -5043,7 +5046,7 @@
         <v>304</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Y31" s="7" t="s">
         <v>59</v>
@@ -5060,7 +5063,7 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="7">
@@ -5073,7 +5076,7 @@
         <v>28</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I32" s="7">
         <v>19</v>
@@ -5109,19 +5112,19 @@
         <v>52</v>
       </c>
       <c r="T32" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="U32" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="U32" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="V32" s="7" t="s">
         <v>59</v>
       </c>
       <c r="W32" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="X32" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="X32" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="Y32" s="7" t="s">
         <v>59</v>
@@ -5138,7 +5141,7 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="7">
@@ -5187,7 +5190,7 @@
         <v>52</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U33" s="7" t="s">
         <v>137</v>
@@ -5196,7 +5199,7 @@
         <v>59</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="X33" s="7" t="s">
         <v>59</v>
@@ -5216,7 +5219,7 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="7">
@@ -5265,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="T34" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U34" s="7" t="s">
         <v>137</v>
@@ -5274,7 +5277,7 @@
         <v>59</v>
       </c>
       <c r="W34" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="X34" s="7" t="s">
         <v>59</v>
@@ -5294,7 +5297,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="7">
@@ -5307,7 +5310,7 @@
         <v>28</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>28</v>
@@ -5370,7 +5373,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="7">
@@ -5446,7 +5449,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="7">
@@ -5495,7 +5498,7 @@
         <v>52</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U37" s="7" t="s">
         <v>138</v>
@@ -5524,7 +5527,7 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="7">
@@ -5573,7 +5576,7 @@
         <v>52</v>
       </c>
       <c r="T38" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U38" s="7" t="s">
         <v>138</v>
@@ -5602,7 +5605,7 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="7">
@@ -5651,7 +5654,7 @@
         <v>52</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U39" s="7" t="s">
         <v>138</v>
@@ -5680,7 +5683,7 @@
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="7">
@@ -5729,7 +5732,7 @@
         <v>52</v>
       </c>
       <c r="T40" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U40" s="7" t="s">
         <v>138</v>
@@ -5758,7 +5761,7 @@
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="7">
@@ -5807,7 +5810,7 @@
         <v>52</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U41" s="7" t="s">
         <v>138</v>
@@ -5836,7 +5839,7 @@
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="7">
@@ -5885,7 +5888,7 @@
         <v>52</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U42" s="7" t="s">
         <v>138</v>
@@ -5914,7 +5917,7 @@
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="7">
@@ -5963,7 +5966,7 @@
         <v>52</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U43" s="7" t="s">
         <v>138</v>
@@ -5972,7 +5975,7 @@
         <v>59</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="X43" s="7" t="s">
         <v>59</v>
@@ -5992,7 +5995,7 @@
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="7">
@@ -6041,7 +6044,7 @@
         <v>52</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U44" s="7" t="s">
         <v>138</v>
@@ -6070,7 +6073,7 @@
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="7">
@@ -6119,7 +6122,7 @@
         <v>52</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U45" s="7" t="s">
         <v>138</v>
@@ -6148,7 +6151,7 @@
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="7">
@@ -6197,7 +6200,7 @@
         <v>52</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U46" s="7" t="s">
         <v>138</v>
@@ -6226,7 +6229,7 @@
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="7">
@@ -6302,7 +6305,7 @@
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="7">
@@ -6330,7 +6333,7 @@
         <v>1.8</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N48" s="7" t="s">
         <v>28</v>
@@ -6351,7 +6354,7 @@
         <v>52</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U48" s="7" t="s">
         <v>138</v>
@@ -6376,14 +6379,14 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E49" s="7">
         <v>1</v>
@@ -6454,14 +6457,14 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E50" s="7">
         <v>3</v>
@@ -6532,14 +6535,14 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E51" s="7">
         <v>5</v>
@@ -6610,14 +6613,14 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E52" s="7">
         <v>7</v>
@@ -6688,14 +6691,14 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E53" s="7">
         <v>9</v>
@@ -6766,14 +6769,14 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E54" s="7">
         <v>11</v>
@@ -6844,14 +6847,14 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A55" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E55" s="7">
         <v>13</v>
@@ -6922,14 +6925,14 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E56" s="7">
         <v>15</v>
@@ -7000,14 +7003,14 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E57" s="7">
         <v>17</v>
@@ -7078,20 +7081,20 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E58" s="7">
         <v>19</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>87</v>
@@ -7133,7 +7136,7 @@
         <v>53</v>
       </c>
       <c r="T58" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U58" s="7" t="s">
         <v>96</v>
@@ -7142,7 +7145,7 @@
         <v>216</v>
       </c>
       <c r="W58" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X58" s="7" t="s">
         <v>28</v>
@@ -7158,14 +7161,14 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E59" s="7">
         <v>21</v>
@@ -7213,7 +7216,7 @@
         <v>53</v>
       </c>
       <c r="T59" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U59" s="7" t="s">
         <v>96</v>
@@ -7238,14 +7241,14 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E60" s="7">
         <v>23</v>
@@ -7293,7 +7296,7 @@
         <v>53</v>
       </c>
       <c r="T60" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U60" s="7" t="s">
         <v>204</v>
@@ -7302,7 +7305,7 @@
         <v>216</v>
       </c>
       <c r="W60" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="X60" s="7" t="s">
         <v>28</v>
@@ -7318,14 +7321,14 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E61" s="7">
         <v>25</v>
@@ -7373,7 +7376,7 @@
         <v>53</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U61" s="7" t="s">
         <v>204</v>
@@ -7398,14 +7401,14 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E62" s="7">
         <v>27</v>
@@ -7453,7 +7456,7 @@
         <v>53</v>
       </c>
       <c r="T62" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U62" s="7" t="s">
         <v>204</v>
@@ -7478,14 +7481,14 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E63" s="7">
         <v>29</v>
@@ -7533,7 +7536,7 @@
         <v>53</v>
       </c>
       <c r="T63" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U63" s="7" t="s">
         <v>204</v>
@@ -7558,14 +7561,14 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E64" s="7">
         <v>31</v>
@@ -7613,7 +7616,7 @@
         <v>53</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U64" s="7" t="s">
         <v>206</v>
@@ -7622,7 +7625,7 @@
         <v>216</v>
       </c>
       <c r="W64" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X64" s="7" t="s">
         <v>217</v>
@@ -7638,14 +7641,14 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E65" s="7">
         <v>33</v>
@@ -7693,7 +7696,7 @@
         <v>53</v>
       </c>
       <c r="T65" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U65" s="7" t="s">
         <v>56</v>
@@ -7718,14 +7721,14 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E66" s="7">
         <v>35</v>
@@ -7796,14 +7799,14 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E67" s="7">
         <v>37</v>
@@ -7851,7 +7854,7 @@
         <v>52</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U67" s="7" t="s">
         <v>56</v>
@@ -7860,7 +7863,7 @@
         <v>216</v>
       </c>
       <c r="W67" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="X67" s="7" t="s">
         <v>28</v>
@@ -7876,14 +7879,14 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E68" s="7">
         <v>39</v>
@@ -7931,7 +7934,7 @@
         <v>52</v>
       </c>
       <c r="T68" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U68" s="7" t="s">
         <v>207</v>
@@ -7956,14 +7959,14 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E69" s="7">
         <v>41</v>
@@ -8011,7 +8014,7 @@
         <v>52</v>
       </c>
       <c r="T69" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U69" s="7" t="s">
         <v>207</v>
@@ -8036,14 +8039,14 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E70" s="7">
         <v>43</v>
@@ -8091,7 +8094,7 @@
         <v>52</v>
       </c>
       <c r="T70" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U70" s="7" t="s">
         <v>56</v>
@@ -8116,14 +8119,14 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E71" s="7">
         <v>45</v>
@@ -8171,7 +8174,7 @@
         <v>52</v>
       </c>
       <c r="T71" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U71" s="7" t="s">
         <v>205</v>
@@ -8196,14 +8199,14 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A72" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E72" s="7">
         <v>47</v>
@@ -8251,7 +8254,7 @@
         <v>52</v>
       </c>
       <c r="T72" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U72" s="7" t="s">
         <v>56</v>
@@ -8276,14 +8279,14 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E73" s="7">
         <v>49</v>
@@ -8331,7 +8334,7 @@
         <v>52</v>
       </c>
       <c r="T73" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U73" s="7" t="s">
         <v>55</v>
@@ -8356,14 +8359,14 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E74" s="7">
         <v>51</v>
@@ -8411,7 +8414,7 @@
         <v>52</v>
       </c>
       <c r="T74" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U74" s="7" t="s">
         <v>55</v>
@@ -8436,14 +8439,14 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E75" s="7">
         <v>53</v>
@@ -8491,7 +8494,7 @@
         <v>52</v>
       </c>
       <c r="T75" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U75" s="7" t="s">
         <v>55</v>
@@ -8516,14 +8519,14 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E76" s="7">
         <v>55</v>
@@ -8571,7 +8574,7 @@
         <v>52</v>
       </c>
       <c r="T76" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U76" s="7" t="s">
         <v>55</v>
@@ -8596,14 +8599,14 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A77" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E77" s="7">
         <v>57</v>
@@ -8612,7 +8615,7 @@
         <v>184</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>358</v>
@@ -8651,7 +8654,7 @@
         <v>52</v>
       </c>
       <c r="T77" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U77" s="7" t="s">
         <v>57</v>
@@ -8676,14 +8679,14 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A78" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E78" s="7">
         <v>59</v>
@@ -8692,7 +8695,7 @@
         <v>185</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>359</v>
@@ -8731,7 +8734,7 @@
         <v>52</v>
       </c>
       <c r="T78" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U78" s="7" t="s">
         <v>57</v>
@@ -8756,14 +8759,14 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A79" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E79" s="7">
         <v>61</v>
@@ -8772,7 +8775,7 @@
         <v>186</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>360</v>
@@ -8811,7 +8814,7 @@
         <v>52</v>
       </c>
       <c r="T79" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U79" s="7" t="s">
         <v>57</v>
@@ -8820,7 +8823,7 @@
         <v>216</v>
       </c>
       <c r="W79" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X79" s="7" t="s">
         <v>220</v>
@@ -8836,14 +8839,14 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A80" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E80" s="7">
         <v>63</v>
@@ -8852,7 +8855,7 @@
         <v>187</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>361</v>
@@ -8891,7 +8894,7 @@
         <v>52</v>
       </c>
       <c r="T80" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U80" s="7" t="s">
         <v>57</v>
@@ -8916,14 +8919,14 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E81" s="7">
         <v>65</v>
@@ -8971,7 +8974,7 @@
         <v>52</v>
       </c>
       <c r="T81" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U81" s="7" t="s">
         <v>208</v>
@@ -8996,14 +8999,14 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A82" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E82" s="7">
         <v>67</v>
@@ -9051,7 +9054,7 @@
         <v>52</v>
       </c>
       <c r="T82" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U82" s="7" t="s">
         <v>95</v>
@@ -9076,14 +9079,14 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A83" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E83" s="7">
         <v>69</v>
@@ -9154,14 +9157,14 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E84" s="7">
         <v>71</v>
@@ -9209,7 +9212,7 @@
         <v>52</v>
       </c>
       <c r="T84" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U84" s="7" t="s">
         <v>209</v>
@@ -9234,14 +9237,14 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A85" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E85" s="7">
         <v>73</v>
@@ -9289,7 +9292,7 @@
         <v>52</v>
       </c>
       <c r="T85" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U85" s="7" t="s">
         <v>210</v>
@@ -9314,14 +9317,14 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A86" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E86" s="7">
         <v>75</v>
@@ -9369,7 +9372,7 @@
         <v>52</v>
       </c>
       <c r="T86" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U86" s="7" t="s">
         <v>210</v>
@@ -9394,14 +9397,14 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A87" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E87" s="7">
         <v>77</v>
@@ -9449,7 +9452,7 @@
         <v>52</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U87" s="7" t="s">
         <v>209</v>
@@ -9458,7 +9461,7 @@
         <v>216</v>
       </c>
       <c r="W87" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="X87" s="7" t="s">
         <v>225</v>
@@ -9474,14 +9477,14 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A88" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E88" s="7">
         <v>79</v>
@@ -9550,14 +9553,14 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A89" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E89" s="7">
         <v>81</v>
@@ -9605,7 +9608,7 @@
         <v>52</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U89" s="7" t="s">
         <v>137</v>
@@ -9614,7 +9617,7 @@
         <v>216</v>
       </c>
       <c r="W89" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="X89" s="7" t="s">
         <v>216</v>
@@ -9630,14 +9633,14 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A90" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E90" s="7">
         <v>83</v>
@@ -9679,13 +9682,13 @@
         <v>50</v>
       </c>
       <c r="R90" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S90" s="7" t="s">
         <v>52</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U90" s="7" t="s">
         <v>213</v>
@@ -9710,14 +9713,14 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A91" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E91" s="7">
         <v>85</v>
@@ -9765,7 +9768,7 @@
         <v>52</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U91" s="7" t="s">
         <v>214</v>
@@ -9790,14 +9793,14 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A92" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E92" s="7">
         <v>87</v>
@@ -9839,13 +9842,13 @@
         <v>50</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S92" s="7" t="s">
         <v>52</v>
       </c>
       <c r="T92" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U92" s="7" t="s">
         <v>214</v>
@@ -9870,14 +9873,14 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A93" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E93" s="7">
         <v>89</v>
@@ -9919,13 +9922,13 @@
         <v>50</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S93" s="7" t="s">
         <v>52</v>
       </c>
       <c r="T93" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U93" s="7" t="s">
         <v>214</v>
@@ -9950,14 +9953,14 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A94" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E94" s="7">
         <v>91</v>
@@ -9999,13 +10002,13 @@
         <v>50</v>
       </c>
       <c r="R94" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S94" s="7" t="s">
         <v>52</v>
       </c>
       <c r="T94" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U94" s="7" t="s">
         <v>214</v>
@@ -10030,14 +10033,14 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A95" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E95" s="7">
         <v>93</v>
@@ -10079,13 +10082,13 @@
         <v>50</v>
       </c>
       <c r="R95" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S95" s="7" t="s">
         <v>52</v>
       </c>
       <c r="T95" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U95" s="7" t="s">
         <v>214</v>
@@ -10110,14 +10113,14 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A96" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E96" s="7">
         <v>95</v>
@@ -10188,14 +10191,14 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A97" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E97" s="7">
         <v>97</v>
@@ -10243,7 +10246,7 @@
         <v>52</v>
       </c>
       <c r="T97" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U97" s="7" t="s">
         <v>215</v>
@@ -10268,14 +10271,14 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A98" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E98" s="7">
         <v>99</v>
@@ -10346,14 +10349,14 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A99" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E99" s="7">
         <v>2</v>
@@ -10426,14 +10429,14 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A100" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E100" s="7">
         <v>4</v>
@@ -10506,14 +10509,14 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A101" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E101" s="7">
         <v>6</v>
@@ -10584,14 +10587,14 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A102" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E102" s="7">
         <v>8</v>
@@ -10662,14 +10665,14 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A103" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E103" s="7">
         <v>10</v>
@@ -10740,14 +10743,14 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A104" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E104" s="7">
         <v>12</v>
@@ -10818,14 +10821,14 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A105" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E105" s="7">
         <v>14</v>
@@ -10896,14 +10899,14 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A106" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E106" s="7">
         <v>16</v>
@@ -10976,14 +10979,14 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A107" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E107" s="7">
         <v>18</v>
@@ -11056,14 +11059,14 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A108" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E108" s="7">
         <v>20</v>
@@ -11134,14 +11137,14 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A109" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E109" s="7">
         <v>22</v>
@@ -11214,14 +11217,14 @@
     </row>
     <row r="110" spans="1:28" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A110" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E110" s="7">
         <v>24</v>
@@ -11230,7 +11233,7 @@
         <v>333</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>366</v>
@@ -11294,14 +11297,14 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A111" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E111" s="7">
         <v>26</v>
@@ -11310,7 +11313,7 @@
         <v>253</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>367</v>
@@ -11358,7 +11361,7 @@
         <v>65</v>
       </c>
       <c r="W111" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="X111" s="7" t="s">
         <v>65</v>
@@ -11374,14 +11377,14 @@
     </row>
     <row r="112" spans="1:28" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A112" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E112" s="7">
         <v>28</v>
@@ -11429,7 +11432,7 @@
         <v>52</v>
       </c>
       <c r="T112" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U112" s="7" t="s">
         <v>212</v>
@@ -11454,14 +11457,14 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A113" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E113" s="7">
         <v>30</v>
@@ -11532,14 +11535,14 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A114" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E114" s="7">
         <v>32</v>
@@ -11610,14 +11613,14 @@
     </row>
     <row r="115" spans="1:28" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A115" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E115" s="7">
         <v>34</v>
@@ -11665,7 +11668,7 @@
         <v>52</v>
       </c>
       <c r="T115" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U115" s="7" t="s">
         <v>292</v>
@@ -11690,14 +11693,14 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A116" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E116" s="7">
         <v>36</v>
@@ -11770,14 +11773,14 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A117" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E117" s="7">
         <v>38</v>
@@ -11850,14 +11853,14 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A118" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E118" s="7">
         <v>40</v>
@@ -11930,14 +11933,14 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A119" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E119" s="7">
         <v>42</v>
@@ -12010,14 +12013,14 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A120" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E120" s="7">
         <v>44</v>
@@ -12090,14 +12093,14 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A121" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E121" s="7">
         <v>46</v>
@@ -12170,14 +12173,14 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A122" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E122" s="7">
         <v>48</v>
@@ -12248,14 +12251,14 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A123" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E123" s="7">
         <v>50</v>
@@ -12312,7 +12315,7 @@
         <v>216</v>
       </c>
       <c r="W123" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="X123" s="7" t="s">
         <v>28</v>
@@ -12328,14 +12331,14 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A124" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E124" s="7">
         <v>52</v>
@@ -12383,7 +12386,7 @@
         <v>52</v>
       </c>
       <c r="T124" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U124" s="7" t="s">
         <v>143</v>
@@ -12408,14 +12411,14 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A125" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E125" s="7">
         <v>54</v>
@@ -12463,7 +12466,7 @@
         <v>52</v>
       </c>
       <c r="T125" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U125" s="7" t="s">
         <v>143</v>
@@ -12488,14 +12491,14 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A126" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E126" s="7">
         <v>56</v>
@@ -12543,7 +12546,7 @@
         <v>52</v>
       </c>
       <c r="T126" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U126" s="7" t="s">
         <v>143</v>
@@ -12568,14 +12571,14 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A127" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E127" s="7">
         <v>58</v>
@@ -12632,7 +12635,7 @@
         <v>216</v>
       </c>
       <c r="W127" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X127" s="7" t="s">
         <v>28</v>
@@ -12648,14 +12651,14 @@
     </row>
     <row r="128" spans="1:28" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A128" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E128" s="7">
         <v>60</v>
@@ -12728,14 +12731,14 @@
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A129" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E129" s="7">
         <v>62</v>
@@ -12808,14 +12811,14 @@
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A130" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E130" s="7">
         <v>64</v>
@@ -12888,14 +12891,14 @@
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A131" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E131" s="7">
         <v>66</v>
@@ -12943,7 +12946,7 @@
         <v>52</v>
       </c>
       <c r="T131" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U131" s="7" t="s">
         <v>294</v>
@@ -12968,14 +12971,14 @@
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A132" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E132" s="7">
         <v>68</v>
@@ -13046,14 +13049,14 @@
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A133" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E133" s="7">
         <v>70</v>
@@ -13124,14 +13127,14 @@
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A134" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E134" s="7">
         <v>72</v>
@@ -13198,22 +13201,22 @@
       </c>
       <c r="Z134" s="7"/>
       <c r="AA134" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB134" s="10" t="s">
         <v>550</v>
-      </c>
-      <c r="AB134" s="10" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A135" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E135" s="7">
         <v>74</v>
@@ -13284,14 +13287,14 @@
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A136" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E136" s="7">
         <v>76</v>
@@ -13364,14 +13367,14 @@
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A137" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E137" s="7">
         <v>78</v>
@@ -13444,14 +13447,14 @@
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A138" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E138" s="7">
         <v>80</v>
@@ -13522,14 +13525,14 @@
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A139" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E139" s="7">
         <v>82</v>
@@ -13568,16 +13571,16 @@
         <v>54</v>
       </c>
       <c r="Q139" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="R139" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S139" s="7" t="s">
         <v>52</v>
       </c>
       <c r="T139" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U139" s="7" t="s">
         <v>215</v>
@@ -13602,14 +13605,14 @@
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A140" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E140" s="7">
         <v>84</v>
@@ -13648,16 +13651,16 @@
         <v>92</v>
       </c>
       <c r="Q140" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="R140" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S140" s="7" t="s">
         <v>52</v>
       </c>
       <c r="T140" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U140" s="7" t="s">
         <v>296</v>
@@ -13682,14 +13685,14 @@
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A141" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E141" s="7">
         <v>86</v>
@@ -13728,16 +13731,16 @@
         <v>28</v>
       </c>
       <c r="Q141" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="R141" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S141" s="7" t="s">
         <v>52</v>
       </c>
       <c r="T141" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U141" s="7" t="s">
         <v>295</v>
@@ -13762,14 +13765,14 @@
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A142" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E142" s="7">
         <v>88</v>
@@ -13840,14 +13843,14 @@
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A143" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E143" s="7">
         <v>90</v>
@@ -13914,22 +13917,22 @@
       </c>
       <c r="Z143" s="7"/>
       <c r="AA143" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="AB143" s="10" t="s">
         <v>548</v>
-      </c>
-      <c r="AB143" s="10" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="144" spans="1:28" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A144" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E144" s="7">
         <v>92</v>
@@ -13996,22 +13999,22 @@
       </c>
       <c r="Z144" s="7"/>
       <c r="AA144" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AB144" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="145" spans="1:28" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A145" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E145" s="7">
         <v>94</v>
@@ -14078,28 +14081,28 @@
       </c>
       <c r="Z145" s="7"/>
       <c r="AA145" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AB145" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A146" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E146" s="7">
         <v>96</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>28</v>
@@ -14166,14 +14169,14 @@
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A147" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E147" s="7">
         <v>98</v>
@@ -14246,14 +14249,14 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A148" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E148" s="7">
         <v>100</v>
@@ -14325,7 +14328,7 @@
     <row r="149" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A149" s="8"/>
       <c r="B149" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -14333,64 +14336,64 @@
         <v>1</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z149" s="7"/>
       <c r="AA149" s="10"/>
@@ -14399,7 +14402,7 @@
     <row r="150" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A150" s="8"/>
       <c r="B150" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -14407,16 +14410,16 @@
         <v>2</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I150" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J150" s="7" t="s">
         <v>377</v>
@@ -14425,46 +14428,46 @@
         <v>50</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M150" s="7" t="s">
         <v>50</v>
       </c>
       <c r="N150" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O150" s="7" t="s">
         <v>50</v>
       </c>
       <c r="P150" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q150" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R150" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S150" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T150" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U150" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V150" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W150" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X150" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y150" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z150" s="7"/>
       <c r="AA150" s="10"/>
@@ -14473,7 +14476,7 @@
     <row r="151" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A151" s="8"/>
       <c r="B151" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
@@ -14481,64 +14484,64 @@
         <v>3</v>
       </c>
       <c r="F151" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="J151" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="G151" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="H151" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="I151" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="J151" s="7" t="s">
+      <c r="K151" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="K151" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="L151" s="7">
         <v>3.3</v>
       </c>
       <c r="M151" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N151" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O151" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P151" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q151" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="R151" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S151" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T151" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U151" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V151" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W151" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X151" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y151" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z151" s="7">
         <v>7</v>
@@ -14549,7 +14552,7 @@
     <row r="152" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A152" s="8"/>
       <c r="B152" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
@@ -14557,16 +14560,16 @@
         <v>4</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I152" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J152" s="7" t="s">
         <v>377</v>
@@ -14581,40 +14584,40 @@
         <v>50</v>
       </c>
       <c r="N152" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O152" s="7" t="s">
         <v>50</v>
       </c>
       <c r="P152" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q152" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R152" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S152" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T152" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U152" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V152" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W152" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X152" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y152" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z152" s="7"/>
       <c r="AA152" s="10"/>
@@ -14623,7 +14626,7 @@
     <row r="153" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A153" s="8"/>
       <c r="B153" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
@@ -14631,64 +14634,64 @@
         <v>5</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I153" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J153" s="7" t="s">
         <v>377</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L153" s="7">
         <v>5</v>
       </c>
       <c r="M153" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N153" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O153" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P153" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q153" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="R153" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S153" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T153" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U153" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V153" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W153" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X153" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y153" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z153" s="7">
         <v>6</v>
@@ -14699,7 +14702,7 @@
     <row r="154" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A154" s="8"/>
       <c r="B154" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -14710,61 +14713,61 @@
         <v>11</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J154" s="7" t="s">
         <v>377</v>
       </c>
       <c r="K154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y154" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z154" s="7"/>
       <c r="AA154" s="10"/>
@@ -14773,7 +14776,7 @@
     <row r="155" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A155" s="8"/>
       <c r="B155" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -14784,61 +14787,61 @@
         <v>11</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J155" s="7" t="s">
         <v>377</v>
       </c>
       <c r="K155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y155" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z155" s="7"/>
       <c r="AA155" s="10"/>
@@ -14847,7 +14850,7 @@
     <row r="156" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A156" s="8"/>
       <c r="B156" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -14855,64 +14858,64 @@
         <v>8</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y156" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z156" s="7"/>
       <c r="AA156" s="10"/>
@@ -14921,7 +14924,7 @@
     <row r="157" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A157" s="8"/>
       <c r="B157" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
@@ -14929,7 +14932,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G157" s="7" t="s">
         <v>282</v>
@@ -14938,55 +14941,55 @@
         <v>383</v>
       </c>
       <c r="I157" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J157" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K157" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L157" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M157" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N157" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O157" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P157" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q157" s="7" t="s">
         <v>51</v>
       </c>
       <c r="R157" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S157" s="7" t="s">
         <v>52</v>
       </c>
       <c r="T157" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U157" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V157" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="W157" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="X157" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Y157" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Z157" s="7">
         <v>7.5</v>
@@ -14997,7 +15000,7 @@
     <row r="158" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A158" s="8"/>
       <c r="B158" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
@@ -15005,7 +15008,7 @@
         <v>2</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G158" s="7" t="s">
         <v>283</v>
@@ -15014,55 +15017,55 @@
         <v>384</v>
       </c>
       <c r="I158" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J158" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K158" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L158" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M158" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N158" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O158" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P158" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q158" s="7" t="s">
         <v>51</v>
       </c>
       <c r="R158" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S158" s="7" t="s">
         <v>52</v>
       </c>
       <c r="T158" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U158" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V158" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W158" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X158" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Y158" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Z158" s="7">
         <v>7.5</v>
@@ -15073,7 +15076,7 @@
     <row r="159" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A159" s="8"/>
       <c r="B159" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
@@ -15081,7 +15084,7 @@
         <v>3</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G159" s="7" t="s">
         <v>284</v>
@@ -15090,55 +15093,55 @@
         <v>385</v>
       </c>
       <c r="I159" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K159" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L159" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M159" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N159" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O159" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P159" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q159" s="7" t="s">
         <v>51</v>
       </c>
       <c r="R159" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S159" s="7" t="s">
         <v>52</v>
       </c>
       <c r="T159" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U159" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V159" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W159" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="X159" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Y159" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Z159" s="7">
         <v>7.5</v>
@@ -15149,7 +15152,7 @@
     <row r="160" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A160" s="8"/>
       <c r="B160" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -15157,7 +15160,7 @@
         <v>4</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G160" s="7" t="s">
         <v>285</v>
@@ -15166,43 +15169,43 @@
         <v>386</v>
       </c>
       <c r="I160" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J160" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K160" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L160" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M160" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N160" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O160" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P160" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q160" s="7" t="s">
         <v>51</v>
       </c>
       <c r="R160" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S160" s="7" t="s">
         <v>52</v>
       </c>
       <c r="T160" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U160" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V160" s="7" t="s">
         <v>74</v>
@@ -15225,7 +15228,7 @@
     <row r="161" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A161" s="8"/>
       <c r="B161" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -15233,7 +15236,7 @@
         <v>5</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>286</v>
@@ -15242,55 +15245,55 @@
         <v>387</v>
       </c>
       <c r="I161" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J161" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K161" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L161" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M161" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N161" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O161" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P161" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q161" s="7" t="s">
         <v>51</v>
       </c>
       <c r="R161" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S161" s="7" t="s">
         <v>52</v>
       </c>
       <c r="T161" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U161" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V161" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W161" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="X161" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Y161" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Z161" s="7">
         <v>8.9</v>
@@ -15301,7 +15304,7 @@
     <row r="162" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A162" s="8"/>
       <c r="B162" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -15309,7 +15312,7 @@
         <v>6</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G162" s="7" t="s">
         <v>287</v>
@@ -15318,55 +15321,55 @@
         <v>388</v>
       </c>
       <c r="I162" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J162" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K162" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L162" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M162" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N162" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O162" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P162" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q162" s="7" t="s">
         <v>51</v>
       </c>
       <c r="R162" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S162" s="7" t="s">
         <v>52</v>
       </c>
       <c r="T162" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U162" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V162" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W162" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="X162" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Y162" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Z162" s="7">
         <v>8.9</v>
@@ -15388,7 +15391,7 @@
         <v>72</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>81</v>
@@ -15397,16 +15400,16 @@
         <v>44</v>
       </c>
       <c r="J163" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K163" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="K163" s="7" t="s">
-        <v>482</v>
-      </c>
       <c r="L163" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M163" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N163" s="7" t="s">
         <v>92</v>
@@ -15427,22 +15430,22 @@
         <v>53</v>
       </c>
       <c r="T163" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="U163" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="U163" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="V163" s="7" t="s">
         <v>216</v>
       </c>
       <c r="W163" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X163" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y163" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z163" s="7">
         <v>7</v>
@@ -15473,16 +15476,16 @@
         <v>45</v>
       </c>
       <c r="J164" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K164" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="K164" s="7" t="s">
-        <v>482</v>
-      </c>
       <c r="L164" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M164" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N164" s="7" t="s">
         <v>92</v>
@@ -15503,22 +15506,22 @@
         <v>53</v>
       </c>
       <c r="T164" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="U164" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="U164" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="V164" s="7" t="s">
         <v>216</v>
       </c>
       <c r="W164" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="X164" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y164" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z164" s="7">
         <v>7</v>
@@ -15537,25 +15540,25 @@
         <v>3</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I165" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J165" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K165" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L165" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M165" s="7" t="s">
         <v>50</v>
@@ -15576,25 +15579,25 @@
         <v>92</v>
       </c>
       <c r="S165" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T165" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U165" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V165" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W165" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X165" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y165" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z165" s="7"/>
       <c r="AA165" s="10"/>
@@ -15614,61 +15617,61 @@
         <v>11</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y166" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z166" s="7"/>
       <c r="AA166" s="10"/>
@@ -15685,40 +15688,40 @@
         <v>5</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G167" s="7" t="s">
         <v>228</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I167" s="7">
         <v>72</v>
       </c>
       <c r="J167" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K167" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="K167" s="7" t="s">
-        <v>482</v>
-      </c>
       <c r="L167" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M167" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N167" s="7" t="s">
         <v>307</v>
       </c>
       <c r="O167" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P167" s="7" t="s">
         <v>307</v>
       </c>
       <c r="Q167" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R167" s="7" t="s">
         <v>307</v>
@@ -15727,19 +15730,19 @@
         <v>53</v>
       </c>
       <c r="T167" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="U167" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="U167" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="V167" s="7" t="s">
         <v>216</v>
       </c>
       <c r="W167" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="X167" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y167" s="7" t="s">
         <v>216</v>
@@ -15761,40 +15764,40 @@
         <v>6</v>
       </c>
       <c r="F168" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H168" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="H168" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="I168" s="7">
         <v>74</v>
       </c>
       <c r="J168" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K168" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="K168" s="7" t="s">
-        <v>482</v>
-      </c>
       <c r="L168" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M168" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N168" s="7" t="s">
         <v>307</v>
       </c>
       <c r="O168" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P168" s="7" t="s">
         <v>307</v>
       </c>
       <c r="Q168" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R168" s="7" t="s">
         <v>307</v>
@@ -15803,19 +15806,19 @@
         <v>53</v>
       </c>
       <c r="T168" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="U168" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="U168" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="V168" s="7" t="s">
         <v>216</v>
       </c>
       <c r="W168" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="X168" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y168" s="7" t="s">
         <v>216</v>
@@ -15837,40 +15840,40 @@
         <v>7</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G169" s="7" t="s">
         <v>230</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I169" s="7">
         <v>73</v>
       </c>
       <c r="J169" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K169" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="K169" s="7" t="s">
-        <v>482</v>
-      </c>
       <c r="L169" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M169" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N169" s="7" t="s">
         <v>307</v>
       </c>
       <c r="O169" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P169" s="7" t="s">
         <v>307</v>
       </c>
       <c r="Q169" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R169" s="7" t="s">
         <v>307</v>
@@ -15879,19 +15882,19 @@
         <v>53</v>
       </c>
       <c r="T169" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="U169" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="U169" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="V169" s="7" t="s">
         <v>216</v>
       </c>
       <c r="W169" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="X169" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y169" s="7" t="s">
         <v>216</v>
@@ -15913,40 +15916,40 @@
         <v>8</v>
       </c>
       <c r="F170" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H170" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="G170" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H170" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="I170" s="7">
         <v>71</v>
       </c>
       <c r="J170" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K170" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="K170" s="7" t="s">
-        <v>482</v>
-      </c>
       <c r="L170" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M170" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N170" s="7" t="s">
         <v>307</v>
       </c>
       <c r="O170" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P170" s="7" t="s">
         <v>307</v>
       </c>
       <c r="Q170" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R170" s="7" t="s">
         <v>307</v>
@@ -15955,19 +15958,19 @@
         <v>53</v>
       </c>
       <c r="T170" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="U170" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="U170" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="V170" s="7" t="s">
         <v>216</v>
       </c>
       <c r="W170" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="X170" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y170" s="7" t="s">
         <v>216</v>
@@ -15989,40 +15992,40 @@
         <v>9</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G171" s="7" t="s">
         <v>232</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I171" s="7">
         <v>48</v>
       </c>
       <c r="J171" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K171" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="K171" s="7" t="s">
-        <v>482</v>
-      </c>
       <c r="L171" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M171" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N171" s="7" t="s">
         <v>307</v>
       </c>
       <c r="O171" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P171" s="7" t="s">
         <v>307</v>
       </c>
       <c r="Q171" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R171" s="7" t="s">
         <v>307</v>
@@ -16031,7 +16034,7 @@
         <v>53</v>
       </c>
       <c r="T171" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U171" s="7" t="s">
         <v>206</v>
@@ -16040,13 +16043,13 @@
         <v>216</v>
       </c>
       <c r="W171" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X171" s="7" t="s">
         <v>217</v>
       </c>
       <c r="Y171" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z171" s="7">
         <v>7</v>
@@ -16065,40 +16068,40 @@
         <v>10</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G172" s="7" t="s">
         <v>238</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I172" s="7">
         <v>30</v>
       </c>
       <c r="J172" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K172" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="K172" s="7" t="s">
-        <v>482</v>
-      </c>
       <c r="L172" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M172" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N172" s="7" t="s">
         <v>307</v>
       </c>
       <c r="O172" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P172" s="7" t="s">
         <v>307</v>
       </c>
       <c r="Q172" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R172" s="7" t="s">
         <v>307</v>
@@ -16107,7 +16110,7 @@
         <v>53</v>
       </c>
       <c r="T172" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="U172" s="7" t="s">
         <v>210</v>
@@ -16116,10 +16119,10 @@
         <v>216</v>
       </c>
       <c r="W172" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="X172" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Y172" s="7" t="s">
         <v>216</v>
@@ -16133,7 +16136,7 @@
     <row r="173" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A173" s="8"/>
       <c r="B173" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
@@ -16141,7 +16144,7 @@
         <v>1</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G173" s="7" t="s">
         <v>288</v>
@@ -16159,22 +16162,22 @@
         <v>4</v>
       </c>
       <c r="L173" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M173" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N173" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O173" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P173" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q173" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R173" s="7" t="s">
         <v>54</v>
@@ -16186,7 +16189,7 @@
         <v>343</v>
       </c>
       <c r="U173" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V173" s="7" t="s">
         <v>216</v>
@@ -16195,10 +16198,10 @@
         <v>343</v>
       </c>
       <c r="X173" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y173" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z173" s="7">
         <v>7</v>
@@ -16209,7 +16212,7 @@
     <row r="174" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A174" s="8"/>
       <c r="B174" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
@@ -16220,10 +16223,10 @@
         <v>315</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I174" s="7">
         <v>46</v>
@@ -16235,22 +16238,22 @@
         <v>4</v>
       </c>
       <c r="L174" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M174" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N174" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O174" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P174" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q174" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R174" s="7" t="s">
         <v>54</v>
@@ -16259,10 +16262,10 @@
         <v>52</v>
       </c>
       <c r="T174" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U174" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="V174" s="7" t="s">
         <v>216</v>
@@ -16271,10 +16274,10 @@
         <v>315</v>
       </c>
       <c r="X174" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y174" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z174" s="7">
         <v>7</v>
@@ -16285,7 +16288,7 @@
     <row r="175" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A175" s="8"/>
       <c r="B175" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
@@ -16299,7 +16302,7 @@
         <v>234</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I175" s="7">
         <v>47</v>
@@ -16311,22 +16314,22 @@
         <v>4</v>
       </c>
       <c r="L175" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M175" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N175" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O175" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P175" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q175" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R175" s="7" t="s">
         <v>54</v>
@@ -16335,10 +16338,10 @@
         <v>52</v>
       </c>
       <c r="T175" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U175" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="V175" s="7" t="s">
         <v>216</v>
@@ -16361,7 +16364,7 @@
     <row r="176" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A176" s="8"/>
       <c r="B176" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
@@ -16375,7 +16378,7 @@
         <v>239</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I176" s="7">
         <v>29</v>
@@ -16387,22 +16390,22 @@
         <v>4</v>
       </c>
       <c r="L176" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M176" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N176" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O176" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P176" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q176" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R176" s="7" t="s">
         <v>54</v>
@@ -16411,7 +16414,7 @@
         <v>52</v>
       </c>
       <c r="T176" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="U176" s="7" t="s">
         <v>210</v>
@@ -16423,7 +16426,7 @@
         <v>325</v>
       </c>
       <c r="X176" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Y176" s="7" t="s">
         <v>216</v>
@@ -16437,7 +16440,7 @@
     <row r="177" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A177" s="8"/>
       <c r="B177" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
@@ -16448,10 +16451,10 @@
         <v>317</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I177" s="7">
         <v>49</v>
@@ -16463,22 +16466,22 @@
         <v>4</v>
       </c>
       <c r="L177" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M177" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N177" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O177" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P177" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q177" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R177" s="7" t="s">
         <v>54</v>
@@ -16487,7 +16490,7 @@
         <v>52</v>
       </c>
       <c r="T177" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="U177" s="7" t="s">
         <v>206</v>
@@ -16513,7 +16516,7 @@
     <row r="178" spans="1:28" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A178" s="8"/>
       <c r="B178" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
@@ -16539,22 +16542,22 @@
         <v>4</v>
       </c>
       <c r="L178" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M178" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N178" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O178" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P178" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q178" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R178" s="7" t="s">
         <v>54</v>
@@ -16566,7 +16569,7 @@
         <v>301</v>
       </c>
       <c r="U178" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="V178" s="7" t="s">
         <v>216</v>
@@ -16589,7 +16592,7 @@
     <row r="179" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A179" s="8"/>
       <c r="B179" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
@@ -16597,13 +16600,13 @@
         <v>7</v>
       </c>
       <c r="F179" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="H179" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="G179" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="H179" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="I179" s="7">
         <v>67</v>
@@ -16615,22 +16618,22 @@
         <v>4</v>
       </c>
       <c r="L179" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M179" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N179" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O179" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P179" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q179" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R179" s="7" t="s">
         <v>54</v>
@@ -16639,10 +16642,10 @@
         <v>52</v>
       </c>
       <c r="T179" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U179" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="V179" s="7" t="s">
         <v>216</v>
@@ -16651,7 +16654,7 @@
         <v>12</v>
       </c>
       <c r="X179" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y179" s="7" t="s">
         <v>216</v>
@@ -16665,7 +16668,7 @@
     <row r="180" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A180" s="8"/>
       <c r="B180" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
@@ -16673,13 +16676,13 @@
         <v>8</v>
       </c>
       <c r="F180" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H180" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="G180" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="I180" s="7">
         <v>68</v>
@@ -16691,22 +16694,22 @@
         <v>4</v>
       </c>
       <c r="L180" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M180" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N180" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O180" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P180" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q180" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R180" s="7" t="s">
         <v>54</v>
@@ -16715,10 +16718,10 @@
         <v>52</v>
       </c>
       <c r="T180" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U180" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="V180" s="7" t="s">
         <v>216</v>
@@ -16727,7 +16730,7 @@
         <v>13</v>
       </c>
       <c r="X180" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y180" s="7" t="s">
         <v>216</v>
@@ -16743,13 +16746,13 @@
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E181" s="7">
         <v>1</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
@@ -16761,7 +16764,7 @@
         <v>50</v>
       </c>
       <c r="L181" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M181" s="7" t="s">
         <v>50</v>
@@ -16782,25 +16785,25 @@
         <v>92</v>
       </c>
       <c r="S181" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T181" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U181" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V181" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W181" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X181" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y181" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z181" s="7"/>
       <c r="AA181" s="8"/>
@@ -16811,7 +16814,7 @@
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E182" s="7">
         <v>2</v>
@@ -16826,49 +16829,49 @@
         <v>377</v>
       </c>
       <c r="K182" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L182" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M182" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N182" s="7" t="s">
         <v>92</v>
       </c>
       <c r="O182" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P182" s="7" t="s">
         <v>92</v>
       </c>
       <c r="Q182" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R182" s="7" t="s">
         <v>92</v>
       </c>
       <c r="S182" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T182" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U182" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V182" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W182" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X182" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y182" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z182" s="7"/>
       <c r="AA182" s="8"/>
@@ -16879,13 +16882,13 @@
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E183" s="7">
         <v>3</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G183" s="7" t="s">
         <v>287</v>
@@ -16903,19 +16906,19 @@
         <v>51</v>
       </c>
       <c r="L183" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M183" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N183" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O183" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P183" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q183" s="7" t="s">
         <v>51</v>
@@ -16955,13 +16958,13 @@
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E184" s="7">
         <v>4</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G184" s="7" t="s">
         <v>286</v>
@@ -16979,19 +16982,19 @@
         <v>51</v>
       </c>
       <c r="L184" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M184" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N184" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O184" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P184" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q184" s="7" t="s">
         <v>51</v>
@@ -17031,13 +17034,13 @@
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E185" s="7">
         <v>5</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
@@ -17055,40 +17058,40 @@
         <v>50</v>
       </c>
       <c r="N185" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O185" s="7" t="s">
         <v>50</v>
       </c>
       <c r="P185" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q185" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R185" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S185" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T185" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U185" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V185" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W185" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X185" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y185" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z185" s="7"/>
       <c r="AA185" s="8"/>
@@ -17099,7 +17102,7 @@
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E186" s="7">
         <v>6</v>
@@ -17114,49 +17117,49 @@
         <v>377</v>
       </c>
       <c r="K186" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L186" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M186" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N186" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O186" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P186" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q186" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R186" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S186" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T186" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U186" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="V186" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W186" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X186" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y186" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z186" s="7"/>
       <c r="AA186" s="8"/>
@@ -17167,7 +17170,7 @@
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E187" s="7">
         <v>7</v>
@@ -17191,22 +17194,22 @@
         <v>4</v>
       </c>
       <c r="L187" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M187" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N187" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O187" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P187" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q187" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R187" s="7" t="s">
         <v>54</v>
@@ -17218,7 +17221,7 @@
         <v>301</v>
       </c>
       <c r="U187" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="V187" s="7" t="s">
         <v>216</v>
@@ -17243,13 +17246,13 @@
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E188" s="7">
         <v>8</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G188" s="7" t="s">
         <v>148</v>
@@ -17267,22 +17270,22 @@
         <v>4</v>
       </c>
       <c r="L188" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M188" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N188" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O188" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P188" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q188" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R188" s="7" t="s">
         <v>54</v>
@@ -17291,7 +17294,7 @@
         <v>52</v>
       </c>
       <c r="T188" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U188" s="7" t="s">
         <v>143</v>
@@ -17319,19 +17322,19 @@
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E189" s="7">
         <v>9</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I189" s="7">
         <v>46</v>
@@ -17343,22 +17346,22 @@
         <v>4</v>
       </c>
       <c r="L189" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M189" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N189" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O189" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P189" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q189" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R189" s="7" t="s">
         <v>54</v>
@@ -17367,10 +17370,10 @@
         <v>52</v>
       </c>
       <c r="T189" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U189" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="V189" s="7" t="s">
         <v>216</v>
@@ -17379,10 +17382,10 @@
         <v>315</v>
       </c>
       <c r="X189" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y189" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z189" s="7">
         <v>7</v>
@@ -17395,13 +17398,13 @@
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E190" s="7">
         <v>10</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G190" s="7" t="s">
         <v>151</v>
@@ -17419,22 +17422,22 @@
         <v>4</v>
       </c>
       <c r="L190" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M190" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N190" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O190" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P190" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q190" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R190" s="7" t="s">
         <v>54</v>
@@ -17443,7 +17446,7 @@
         <v>52</v>
       </c>
       <c r="T190" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U190" s="7" t="s">
         <v>143</v>
@@ -17471,19 +17474,19 @@
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E191" s="7">
         <v>11</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G191" s="7" t="s">
         <v>234</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I191" s="7">
         <v>47</v>
@@ -17495,22 +17498,22 @@
         <v>4</v>
       </c>
       <c r="L191" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M191" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N191" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O191" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P191" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q191" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R191" s="7" t="s">
         <v>54</v>
@@ -17519,10 +17522,10 @@
         <v>52</v>
       </c>
       <c r="T191" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U191" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="V191" s="7" t="s">
         <v>216</v>
@@ -17547,13 +17550,13 @@
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E192" s="7">
         <v>12</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G192" s="7" t="s">
         <v>150</v>
@@ -17571,22 +17574,22 @@
         <v>4</v>
       </c>
       <c r="L192" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M192" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N192" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O192" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P192" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q192" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R192" s="7" t="s">
         <v>54</v>
@@ -17595,7 +17598,7 @@
         <v>52</v>
       </c>
       <c r="T192" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U192" s="7" t="s">
         <v>143</v>
@@ -17623,13 +17626,13 @@
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E193" s="7">
         <v>13</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G193" s="7" t="s">
         <v>232</v>
@@ -17647,22 +17650,22 @@
         <v>4</v>
       </c>
       <c r="L193" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M193" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N193" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O193" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P193" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q193" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R193" s="7" t="s">
         <v>54</v>
@@ -17671,7 +17674,7 @@
         <v>53</v>
       </c>
       <c r="T193" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U193" s="7" t="s">
         <v>206</v>
@@ -17680,7 +17683,7 @@
         <v>216</v>
       </c>
       <c r="W193" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X193" s="7" t="s">
         <v>217</v>
@@ -17699,13 +17702,13 @@
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E194" s="7">
         <v>14</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G194" s="7" t="s">
         <v>149</v>
@@ -17723,22 +17726,22 @@
         <v>4</v>
       </c>
       <c r="L194" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M194" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N194" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O194" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P194" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q194" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R194" s="7" t="s">
         <v>54</v>
@@ -17756,7 +17759,7 @@
         <v>216</v>
       </c>
       <c r="W194" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X194" s="7" t="s">
         <v>28</v>
@@ -17775,19 +17778,19 @@
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E195" s="7">
         <v>15</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I195" s="7">
         <v>49</v>
@@ -17799,22 +17802,22 @@
         <v>4</v>
       </c>
       <c r="L195" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M195" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N195" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O195" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P195" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q195" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R195" s="7" t="s">
         <v>54</v>
@@ -17823,7 +17826,7 @@
         <v>52</v>
       </c>
       <c r="T195" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="U195" s="7" t="s">
         <v>206</v>
@@ -17851,13 +17854,13 @@
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E196" s="7">
         <v>16</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G196" s="7" t="s">
         <v>288</v>
@@ -17875,22 +17878,22 @@
         <v>4</v>
       </c>
       <c r="L196" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M196" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N196" s="7" t="s">
         <v>54</v>
       </c>
       <c r="O196" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P196" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q196" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R196" s="7" t="s">
         <v>54</v>
@@ -17902,7 +17905,7 @@
         <v>343</v>
       </c>
       <c r="U196" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V196" s="7" t="s">
         <v>216</v>
@@ -17911,10 +17914,10 @@
         <v>343</v>
       </c>
       <c r="X196" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Y196" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z196" s="7">
         <v>7</v>
@@ -17926,11 +17929,6 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A2:AB2" xr:uid="{63397F36-E61B-4D89-81D6-261292303536}"/>
   <mergeCells count="18">
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="L1:L2"/>
@@ -17944,6 +17942,11 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pin/Spresense_pin_function_ja.xlsx
+++ b/Pin/Spresense_pin_function_ja.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1308CA09-1F7B-482E-B22A-4FF48FFD5C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9297E6D3-A95F-42A9-8B51-7513F4F525F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D4A1A96D-02BA-4FB2-8190-975445C70E49}"/>
   </bookViews>
@@ -2702,8 +2702,8 @@
   <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T22" sqref="T22"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5328,7 +5328,7 @@
         <v>50</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>50</v>
@@ -13092,13 +13092,13 @@
         <v>50</v>
       </c>
       <c r="P133" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="Q133" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R133" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="S133" s="7" t="s">
         <v>94</v>
@@ -13170,13 +13170,13 @@
         <v>50</v>
       </c>
       <c r="P134" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="Q134" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R134" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="S134" s="7" t="s">
         <v>94</v>
@@ -13252,13 +13252,13 @@
         <v>50</v>
       </c>
       <c r="P135" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="Q135" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R135" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="S135" s="7" t="s">
         <v>94</v>
@@ -13886,13 +13886,13 @@
         <v>50</v>
       </c>
       <c r="P143" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="Q143" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R143" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="S143" s="7" t="s">
         <v>94</v>
@@ -13968,13 +13968,13 @@
         <v>50</v>
       </c>
       <c r="P144" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="Q144" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R144" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="S144" s="7" t="s">
         <v>94</v>
@@ -14050,13 +14050,13 @@
         <v>50</v>
       </c>
       <c r="P145" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="Q145" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R145" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="S145" s="7" t="s">
         <v>94</v>

--- a/Pin/Spresense_pin_function_ja.xlsx
+++ b/Pin/Spresense_pin_function_ja.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9297E6D3-A95F-42A9-8B51-7513F4F525F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA2C0A4-F922-41A4-8145-C14A19CECEFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D4A1A96D-02BA-4FB2-8190-975445C70E49}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ピンリスト" sheetId="1" r:id="rId1"/>
+    <sheet name="公開履歴" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AB$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ピンリスト!$A$2:$AB$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4097" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4103" uniqueCount="564">
   <si>
     <t>ピン</t>
     <phoneticPr fontId="1"/>
@@ -2105,6 +2106,65 @@
   </si>
   <si>
     <t xml:space="preserve">I2S0 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一稿</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>イッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACP_GPO1～7のArduinoおよびSDK起動後の初期値を訂正。
+XRST(SPR_RST_X)の各初期値を訂正。</t>
+    <rPh sb="24" eb="27">
+      <t>キドウゴ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テイセイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>テイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021.4.14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020.11.13</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2271,7 +2331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2374,6 +2434,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2383,8 +2458,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF66"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFCCECFF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFFFFFF"/>
@@ -2702,8 +2778,8 @@
   <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3878,19 +3954,19 @@
         <v>28</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>54</v>
+        <v>557</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S16" s="7" t="s">
         <v>52</v>
@@ -11572,19 +11648,19 @@
         <v>28</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>54</v>
+        <v>557</v>
       </c>
       <c r="O114" s="7" t="s">
         <v>50</v>
       </c>
       <c r="P114" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q114" s="7" t="s">
         <v>50</v>
       </c>
       <c r="R114" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S114" s="7" t="s">
         <v>52</v>
@@ -17952,4 +18028,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E54AD63-6361-4A38-9753-A2A5747D86C5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="37" customWidth="1"/>
+    <col min="2" max="2" width="53.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>561</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Pin/Spresense_pin_function_ja.xlsx
+++ b/Pin/Spresense_pin_function_ja.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{3D095D64-DA9C-43F4-8C29-B46339D90594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A8D5475-2B1F-4A87-93A8-A71B951A76DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F4D8F1-FAFC-4E00-8B20-A9BB0D80E157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{D4A1A96D-02BA-4FB2-8190-975445C70E49}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8916" activeTab="1" xr2:uid="{D4A1A96D-02BA-4FB2-8190-975445C70E49}"/>
   </bookViews>
   <sheets>
     <sheet name="ピンリスト" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4107" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4204" uniqueCount="582">
   <si>
     <t>Ref</t>
     <phoneticPr fontId="1"/>
@@ -2167,6 +2167,105 @@
   </si>
   <si>
     <t>SPR_SPI2_SCKのArduinoIDE上の名称を訂正。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPR_I2S1_DATA_OUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPR_I2S1_DATA_IN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPR_I2S1_LRCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPR_I2S1_BCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2S1_DATA_OUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P1w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2S1_DATA_IN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2S1_LRCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2S1_BCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2S1</t>
+  </si>
+  <si>
+    <t>LED0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024.3.21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIN_I2S1_BCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIN_I2S1_LRCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIN_I2S1_DATA_IN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIN_I2S1_DATA_OUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインボードのLED0～3とLTE拡張ボードのS1を追加</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2326,17 +2425,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2348,7 +2443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2409,17 +2504,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2801,109 +2890,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7B511B-062A-4CC3-8039-57B02DC0E658}">
-  <dimension ref="A1:AB196"/>
+  <dimension ref="A1:AB201"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J84" sqref="J84"/>
+      <pane ySplit="2" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A149" sqref="A149:XFD152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="5.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" style="5" customWidth="1"/>
     <col min="10" max="10" width="9" style="5" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="5" customWidth="1"/>
     <col min="12" max="12" width="7" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="8.625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="6.625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="13.25" style="5" customWidth="1"/>
-    <col min="20" max="20" width="16.875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.59765625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.59765625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="6.59765625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="8.59765625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="6.59765625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.59765625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="13.19921875" style="5" customWidth="1"/>
+    <col min="20" max="20" width="16.8984375" style="5" customWidth="1"/>
     <col min="21" max="21" width="9" style="5" customWidth="1"/>
-    <col min="22" max="22" width="13.875" style="5" customWidth="1"/>
-    <col min="23" max="23" width="16.375" style="5" customWidth="1"/>
-    <col min="24" max="24" width="15.375" style="5" customWidth="1"/>
-    <col min="25" max="25" width="16.625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="12.875" style="5" customWidth="1"/>
-    <col min="27" max="28" width="21.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.8984375" style="5" customWidth="1"/>
+    <col min="23" max="23" width="16.3984375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="15.3984375" style="5" customWidth="1"/>
+    <col min="25" max="25" width="16.59765625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="12.8984375" style="5" customWidth="1"/>
+    <col min="27" max="28" width="21.3984375" style="1" customWidth="1"/>
     <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26" t="s">
+      <c r="R1" s="23"/>
+      <c r="S1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="29" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="28" t="s">
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AA1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -2916,14 +3005,14 @@
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
       <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2942,7 +3031,7 @@
       <c r="R2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="27"/>
+      <c r="S2" s="25"/>
       <c r="T2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2961,11 +3050,11 @@
       <c r="Y2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -3039,7 +3128,7 @@
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -3115,7 +3204,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -3191,7 +3280,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -3267,7 +3356,7 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -3343,7 +3432,7 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -3419,7 +3508,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -3495,7 +3584,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -3571,7 +3660,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -3647,7 +3736,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -3721,7 +3810,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -3795,7 +3884,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -3871,7 +3960,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -3945,7 +4034,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>95</v>
       </c>
@@ -4019,7 +4108,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>95</v>
       </c>
@@ -4093,7 +4182,7 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>95</v>
       </c>
@@ -4169,7 +4258,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>95</v>
       </c>
@@ -4245,7 +4334,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>95</v>
       </c>
@@ -4321,7 +4410,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>95</v>
       </c>
@@ -4397,7 +4486,7 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>95</v>
       </c>
@@ -4473,7 +4562,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>95</v>
       </c>
@@ -4549,7 +4638,7 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>95</v>
       </c>
@@ -4625,7 +4714,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>95</v>
       </c>
@@ -4699,7 +4788,7 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>95</v>
       </c>
@@ -4775,7 +4864,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>95</v>
       </c>
@@ -4851,7 +4940,7 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>95</v>
       </c>
@@ -4927,7 +5016,7 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>142</v>
       </c>
@@ -5005,7 +5094,7 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>142</v>
       </c>
@@ -5081,7 +5170,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>142</v>
       </c>
@@ -5159,7 +5248,7 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>142</v>
       </c>
@@ -5237,7 +5326,7 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>142</v>
       </c>
@@ -5315,7 +5404,7 @@
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>142</v>
       </c>
@@ -5393,7 +5482,7 @@
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>142</v>
       </c>
@@ -5469,7 +5558,7 @@
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
         <v>142</v>
       </c>
@@ -5545,7 +5634,7 @@
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>142</v>
       </c>
@@ -5623,7 +5712,7 @@
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" s="6" t="s">
         <v>142</v>
       </c>
@@ -5701,7 +5790,7 @@
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A39" s="6" t="s">
         <v>142</v>
       </c>
@@ -5779,7 +5868,7 @@
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A40" s="6" t="s">
         <v>142</v>
       </c>
@@ -5857,7 +5946,7 @@
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A41" s="6" t="s">
         <v>142</v>
       </c>
@@ -5935,7 +6024,7 @@
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>142</v>
       </c>
@@ -6013,7 +6102,7 @@
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A43" s="6" t="s">
         <v>142</v>
       </c>
@@ -6091,7 +6180,7 @@
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" s="6" t="s">
         <v>142</v>
       </c>
@@ -6169,7 +6258,7 @@
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A45" s="6" t="s">
         <v>142</v>
       </c>
@@ -6247,7 +6336,7 @@
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A46" s="6" t="s">
         <v>142</v>
       </c>
@@ -6325,7 +6414,7 @@
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A47" s="6" t="s">
         <v>142</v>
       </c>
@@ -6401,7 +6490,7 @@
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" s="6" t="s">
         <v>142</v>
       </c>
@@ -6479,7 +6568,7 @@
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A49" s="6" t="s">
         <v>195</v>
       </c>
@@ -6557,7 +6646,7 @@
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A50" s="6" t="s">
         <v>195</v>
       </c>
@@ -6635,7 +6724,7 @@
       <c r="AA50" s="7"/>
       <c r="AB50" s="7"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A51" s="6" t="s">
         <v>195</v>
       </c>
@@ -6713,7 +6802,7 @@
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A52" s="6" t="s">
         <v>195</v>
       </c>
@@ -6791,7 +6880,7 @@
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A53" s="6" t="s">
         <v>195</v>
       </c>
@@ -6869,7 +6958,7 @@
       <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A54" s="6" t="s">
         <v>195</v>
       </c>
@@ -6947,7 +7036,7 @@
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
         <v>195</v>
       </c>
@@ -7025,7 +7114,7 @@
       <c r="AA55" s="7"/>
       <c r="AB55" s="7"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A56" s="6" t="s">
         <v>195</v>
       </c>
@@ -7103,7 +7192,7 @@
       <c r="AA56" s="7"/>
       <c r="AB56" s="7"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A57" s="6" t="s">
         <v>195</v>
       </c>
@@ -7181,7 +7270,7 @@
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A58" s="6" t="s">
         <v>195</v>
       </c>
@@ -7261,7 +7350,7 @@
       <c r="AA58" s="7"/>
       <c r="AB58" s="7"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A59" s="6" t="s">
         <v>195</v>
       </c>
@@ -7341,7 +7430,7 @@
       <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A60" s="6" t="s">
         <v>195</v>
       </c>
@@ -7421,7 +7510,7 @@
       <c r="AA60" s="7"/>
       <c r="AB60" s="7"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A61" s="6" t="s">
         <v>195</v>
       </c>
@@ -7501,7 +7590,7 @@
       <c r="AA61" s="7"/>
       <c r="AB61" s="7"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A62" s="6" t="s">
         <v>195</v>
       </c>
@@ -7581,7 +7670,7 @@
       <c r="AA62" s="7"/>
       <c r="AB62" s="7"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A63" s="6" t="s">
         <v>195</v>
       </c>
@@ -7661,7 +7750,7 @@
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A64" s="6" t="s">
         <v>195</v>
       </c>
@@ -7741,7 +7830,7 @@
       <c r="AA64" s="7"/>
       <c r="AB64" s="7"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A65" s="6" t="s">
         <v>195</v>
       </c>
@@ -7821,7 +7910,7 @@
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A66" s="6" t="s">
         <v>195</v>
       </c>
@@ -7899,7 +7988,7 @@
       <c r="AA66" s="7"/>
       <c r="AB66" s="7"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A67" s="6" t="s">
         <v>195</v>
       </c>
@@ -7979,7 +8068,7 @@
       <c r="AA67" s="7"/>
       <c r="AB67" s="7"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A68" s="6" t="s">
         <v>195</v>
       </c>
@@ -8059,7 +8148,7 @@
       <c r="AA68" s="7"/>
       <c r="AB68" s="7"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A69" s="6" t="s">
         <v>195</v>
       </c>
@@ -8139,7 +8228,7 @@
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A70" s="6" t="s">
         <v>195</v>
       </c>
@@ -8219,7 +8308,7 @@
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A71" s="6" t="s">
         <v>195</v>
       </c>
@@ -8299,7 +8388,7 @@
       <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A72" s="6" t="s">
         <v>195</v>
       </c>
@@ -8379,7 +8468,7 @@
       <c r="AA72" s="7"/>
       <c r="AB72" s="7"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A73" s="6" t="s">
         <v>195</v>
       </c>
@@ -8459,7 +8548,7 @@
       <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A74" s="6" t="s">
         <v>195</v>
       </c>
@@ -8539,7 +8628,7 @@
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A75" s="6" t="s">
         <v>195</v>
       </c>
@@ -8619,7 +8708,7 @@
       <c r="AA75" s="7"/>
       <c r="AB75" s="7"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A76" s="6" t="s">
         <v>195</v>
       </c>
@@ -8699,7 +8788,7 @@
       <c r="AA76" s="7"/>
       <c r="AB76" s="7"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A77" s="6" t="s">
         <v>195</v>
       </c>
@@ -8779,7 +8868,7 @@
       <c r="AA77" s="7"/>
       <c r="AB77" s="7"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A78" s="6" t="s">
         <v>195</v>
       </c>
@@ -8859,7 +8948,7 @@
       <c r="AA78" s="7"/>
       <c r="AB78" s="7"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A79" s="6" t="s">
         <v>195</v>
       </c>
@@ -8939,7 +9028,7 @@
       <c r="AA79" s="7"/>
       <c r="AB79" s="7"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A80" s="6" t="s">
         <v>195</v>
       </c>
@@ -9019,7 +9108,7 @@
       <c r="AA80" s="7"/>
       <c r="AB80" s="7"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A81" s="6" t="s">
         <v>195</v>
       </c>
@@ -9099,7 +9188,7 @@
       <c r="AA81" s="7"/>
       <c r="AB81" s="7"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A82" s="6" t="s">
         <v>195</v>
       </c>
@@ -9179,7 +9268,7 @@
       <c r="AA82" s="7"/>
       <c r="AB82" s="7"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A83" s="6" t="s">
         <v>195</v>
       </c>
@@ -9257,7 +9346,7 @@
       <c r="AA83" s="7"/>
       <c r="AB83" s="7"/>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A84" s="6" t="s">
         <v>195</v>
       </c>
@@ -9337,7 +9426,7 @@
       <c r="AA84" s="7"/>
       <c r="AB84" s="7"/>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A85" s="6" t="s">
         <v>195</v>
       </c>
@@ -9417,7 +9506,7 @@
       <c r="AA85" s="7"/>
       <c r="AB85" s="7"/>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A86" s="6" t="s">
         <v>195</v>
       </c>
@@ -9497,7 +9586,7 @@
       <c r="AA86" s="7"/>
       <c r="AB86" s="7"/>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A87" s="6" t="s">
         <v>195</v>
       </c>
@@ -9577,7 +9666,7 @@
       <c r="AA87" s="7"/>
       <c r="AB87" s="7"/>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A88" s="6" t="s">
         <v>195</v>
       </c>
@@ -9653,7 +9742,7 @@
       <c r="AA88" s="7"/>
       <c r="AB88" s="7"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A89" s="6" t="s">
         <v>195</v>
       </c>
@@ -9733,7 +9822,7 @@
       <c r="AA89" s="7"/>
       <c r="AB89" s="7"/>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A90" s="6" t="s">
         <v>195</v>
       </c>
@@ -9813,7 +9902,7 @@
       <c r="AA90" s="7"/>
       <c r="AB90" s="7"/>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A91" s="6" t="s">
         <v>195</v>
       </c>
@@ -9893,7 +9982,7 @@
       <c r="AA91" s="7"/>
       <c r="AB91" s="7"/>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A92" s="6" t="s">
         <v>195</v>
       </c>
@@ -9973,7 +10062,7 @@
       <c r="AA92" s="7"/>
       <c r="AB92" s="7"/>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A93" s="6" t="s">
         <v>195</v>
       </c>
@@ -10053,7 +10142,7 @@
       <c r="AA93" s="7"/>
       <c r="AB93" s="7"/>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A94" s="6" t="s">
         <v>195</v>
       </c>
@@ -10133,7 +10222,7 @@
       <c r="AA94" s="7"/>
       <c r="AB94" s="7"/>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A95" s="6" t="s">
         <v>195</v>
       </c>
@@ -10213,7 +10302,7 @@
       <c r="AA95" s="7"/>
       <c r="AB95" s="7"/>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A96" s="6" t="s">
         <v>195</v>
       </c>
@@ -10291,7 +10380,7 @@
       <c r="AA96" s="7"/>
       <c r="AB96" s="7"/>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A97" s="6" t="s">
         <v>195</v>
       </c>
@@ -10371,7 +10460,7 @@
       <c r="AA97" s="7"/>
       <c r="AB97" s="7"/>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A98" s="6" t="s">
         <v>195</v>
       </c>
@@ -10449,7 +10538,7 @@
       <c r="AA98" s="7"/>
       <c r="AB98" s="7"/>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A99" s="6" t="s">
         <v>352</v>
       </c>
@@ -10529,7 +10618,7 @@
       <c r="AA99" s="7"/>
       <c r="AB99" s="7"/>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A100" s="6" t="s">
         <v>352</v>
       </c>
@@ -10609,7 +10698,7 @@
       <c r="AA100" s="7"/>
       <c r="AB100" s="7"/>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A101" s="6" t="s">
         <v>352</v>
       </c>
@@ -10687,7 +10776,7 @@
       <c r="AA101" s="7"/>
       <c r="AB101" s="7"/>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A102" s="6" t="s">
         <v>352</v>
       </c>
@@ -10765,7 +10854,7 @@
       <c r="AA102" s="7"/>
       <c r="AB102" s="7"/>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A103" s="6" t="s">
         <v>352</v>
       </c>
@@ -10843,7 +10932,7 @@
       <c r="AA103" s="7"/>
       <c r="AB103" s="7"/>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A104" s="6" t="s">
         <v>352</v>
       </c>
@@ -10921,7 +11010,7 @@
       <c r="AA104" s="7"/>
       <c r="AB104" s="7"/>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A105" s="6" t="s">
         <v>352</v>
       </c>
@@ -10999,7 +11088,7 @@
       <c r="AA105" s="7"/>
       <c r="AB105" s="7"/>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A106" s="6" t="s">
         <v>352</v>
       </c>
@@ -11079,7 +11168,7 @@
       <c r="AA106" s="7"/>
       <c r="AB106" s="7"/>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A107" s="6" t="s">
         <v>352</v>
       </c>
@@ -11159,7 +11248,7 @@
       <c r="AA107" s="7"/>
       <c r="AB107" s="7"/>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A108" s="6" t="s">
         <v>352</v>
       </c>
@@ -11237,7 +11326,7 @@
       <c r="AA108" s="7"/>
       <c r="AB108" s="7"/>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A109" s="6" t="s">
         <v>352</v>
       </c>
@@ -11317,7 +11406,7 @@
       <c r="AA109" s="7"/>
       <c r="AB109" s="7"/>
     </row>
-    <row r="110" spans="1:28" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:28" ht="36" x14ac:dyDescent="0.45">
       <c r="A110" s="6" t="s">
         <v>352</v>
       </c>
@@ -11397,7 +11486,7 @@
       <c r="AA110" s="7"/>
       <c r="AB110" s="7"/>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A111" s="6" t="s">
         <v>352</v>
       </c>
@@ -11477,7 +11566,7 @@
       <c r="AA111" s="7"/>
       <c r="AB111" s="7"/>
     </row>
-    <row r="112" spans="1:28" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:28" ht="36" x14ac:dyDescent="0.45">
       <c r="A112" s="6" t="s">
         <v>352</v>
       </c>
@@ -11557,7 +11646,7 @@
       <c r="AA112" s="7"/>
       <c r="AB112" s="7"/>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A113" s="6" t="s">
         <v>352</v>
       </c>
@@ -11635,7 +11724,7 @@
       <c r="AA113" s="7"/>
       <c r="AB113" s="7"/>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A114" s="6" t="s">
         <v>352</v>
       </c>
@@ -11713,7 +11802,7 @@
       <c r="AA114" s="7"/>
       <c r="AB114" s="7"/>
     </row>
-    <row r="115" spans="1:28" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:28" ht="36" x14ac:dyDescent="0.45">
       <c r="A115" s="6" t="s">
         <v>352</v>
       </c>
@@ -11793,7 +11882,7 @@
       <c r="AA115" s="7"/>
       <c r="AB115" s="7"/>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A116" s="6" t="s">
         <v>352</v>
       </c>
@@ -11873,7 +11962,7 @@
       <c r="AA116" s="7"/>
       <c r="AB116" s="7"/>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A117" s="6" t="s">
         <v>352</v>
       </c>
@@ -11953,7 +12042,7 @@
       <c r="AA117" s="7"/>
       <c r="AB117" s="7"/>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A118" s="6" t="s">
         <v>352</v>
       </c>
@@ -12033,7 +12122,7 @@
       <c r="AA118" s="7"/>
       <c r="AB118" s="7"/>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A119" s="6" t="s">
         <v>352</v>
       </c>
@@ -12113,7 +12202,7 @@
       <c r="AA119" s="7"/>
       <c r="AB119" s="7"/>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A120" s="6" t="s">
         <v>352</v>
       </c>
@@ -12193,7 +12282,7 @@
       <c r="AA120" s="7"/>
       <c r="AB120" s="7"/>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A121" s="6" t="s">
         <v>352</v>
       </c>
@@ -12273,7 +12362,7 @@
       <c r="AA121" s="7"/>
       <c r="AB121" s="7"/>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A122" s="6" t="s">
         <v>352</v>
       </c>
@@ -12351,7 +12440,7 @@
       <c r="AA122" s="7"/>
       <c r="AB122" s="7"/>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A123" s="6" t="s">
         <v>352</v>
       </c>
@@ -12431,7 +12520,7 @@
       <c r="AA123" s="7"/>
       <c r="AB123" s="7"/>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A124" s="6" t="s">
         <v>352</v>
       </c>
@@ -12511,7 +12600,7 @@
       <c r="AA124" s="7"/>
       <c r="AB124" s="7"/>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A125" s="6" t="s">
         <v>352</v>
       </c>
@@ -12591,7 +12680,7 @@
       <c r="AA125" s="7"/>
       <c r="AB125" s="7"/>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A126" s="6" t="s">
         <v>352</v>
       </c>
@@ -12671,7 +12760,7 @@
       <c r="AA126" s="7"/>
       <c r="AB126" s="7"/>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A127" s="6" t="s">
         <v>352</v>
       </c>
@@ -12751,7 +12840,7 @@
       <c r="AA127" s="7"/>
       <c r="AB127" s="7"/>
     </row>
-    <row r="128" spans="1:28" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:28" ht="36" x14ac:dyDescent="0.45">
       <c r="A128" s="6" t="s">
         <v>352</v>
       </c>
@@ -12831,7 +12920,7 @@
       <c r="AA128" s="7"/>
       <c r="AB128" s="7"/>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A129" s="6" t="s">
         <v>352</v>
       </c>
@@ -12911,7 +13000,7 @@
       <c r="AA129" s="7"/>
       <c r="AB129" s="7"/>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A130" s="6" t="s">
         <v>352</v>
       </c>
@@ -12991,7 +13080,7 @@
       <c r="AA130" s="7"/>
       <c r="AB130" s="7"/>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A131" s="6" t="s">
         <v>352</v>
       </c>
@@ -13071,7 +13160,7 @@
       <c r="AA131" s="7"/>
       <c r="AB131" s="7"/>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A132" s="6" t="s">
         <v>352</v>
       </c>
@@ -13149,7 +13238,7 @@
       <c r="AA132" s="7"/>
       <c r="AB132" s="7"/>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A133" s="6" t="s">
         <v>352</v>
       </c>
@@ -13227,7 +13316,7 @@
       <c r="AA133" s="7"/>
       <c r="AB133" s="7"/>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A134" s="6" t="s">
         <v>352</v>
       </c>
@@ -13309,7 +13398,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A135" s="6" t="s">
         <v>352</v>
       </c>
@@ -13387,7 +13476,7 @@
       <c r="AA135" s="7"/>
       <c r="AB135" s="7"/>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A136" s="6" t="s">
         <v>352</v>
       </c>
@@ -13467,7 +13556,7 @@
       <c r="AA136" s="7"/>
       <c r="AB136" s="7"/>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A137" s="6" t="s">
         <v>352</v>
       </c>
@@ -13547,7 +13636,7 @@
       <c r="AA137" s="7"/>
       <c r="AB137" s="7"/>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A138" s="6" t="s">
         <v>352</v>
       </c>
@@ -13625,7 +13714,7 @@
       <c r="AA138" s="7"/>
       <c r="AB138" s="7"/>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A139" s="6" t="s">
         <v>352</v>
       </c>
@@ -13705,7 +13794,7 @@
       <c r="AA139" s="7"/>
       <c r="AB139" s="7"/>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A140" s="6" t="s">
         <v>352</v>
       </c>
@@ -13785,7 +13874,7 @@
       <c r="AA140" s="7"/>
       <c r="AB140" s="7"/>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A141" s="6" t="s">
         <v>352</v>
       </c>
@@ -13865,7 +13954,7 @@
       <c r="AA141" s="7"/>
       <c r="AB141" s="7"/>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A142" s="6" t="s">
         <v>352</v>
       </c>
@@ -13943,7 +14032,7 @@
       <c r="AA142" s="7"/>
       <c r="AB142" s="7"/>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A143" s="6" t="s">
         <v>352</v>
       </c>
@@ -14025,7 +14114,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="144" spans="1:28" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:28" ht="36" x14ac:dyDescent="0.45">
       <c r="A144" s="6" t="s">
         <v>352</v>
       </c>
@@ -14107,7 +14196,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="145" spans="1:28" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:28" ht="54" x14ac:dyDescent="0.45">
       <c r="A145" s="6" t="s">
         <v>352</v>
       </c>
@@ -14189,7 +14278,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A146" s="6" t="s">
         <v>352</v>
       </c>
@@ -14269,7 +14358,7 @@
       <c r="AA146" s="7"/>
       <c r="AB146" s="7"/>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A147" s="6" t="s">
         <v>352</v>
       </c>
@@ -14349,7 +14438,7 @@
       <c r="AA147" s="7"/>
       <c r="AB147" s="7"/>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A148" s="6" t="s">
         <v>352</v>
       </c>
@@ -14427,305 +14516,303 @@
       <c r="AA148" s="7"/>
       <c r="AB148" s="7"/>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A149" s="7"/>
-      <c r="B149" s="6" t="s">
-        <v>473</v>
-      </c>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A149" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B149" s="6"/>
       <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="6">
-        <v>1</v>
-      </c>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
       <c r="F149" s="6" t="s">
-        <v>474</v>
+        <v>560</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>475</v>
+        <v>571</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="I149" s="6" t="s">
-        <v>475</v>
+        <v>577</v>
+      </c>
+      <c r="I149" s="6">
+        <v>97</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>475</v>
+        <v>36</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="L149" s="6" t="s">
-        <v>475</v>
+        <v>37</v>
+      </c>
+      <c r="L149" s="6">
+        <v>1.8</v>
       </c>
       <c r="M149" s="6" t="s">
-        <v>475</v>
+        <v>31</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="O149" s="6" t="s">
-        <v>475</v>
+        <v>31</v>
       </c>
       <c r="P149" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="Q149" s="6" t="s">
-        <v>475</v>
+        <v>31</v>
       </c>
       <c r="R149" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="S149" s="6" t="s">
-        <v>475</v>
+        <v>86</v>
       </c>
       <c r="T149" s="6" t="s">
-        <v>475</v>
+        <v>570</v>
       </c>
       <c r="U149" s="6" t="s">
-        <v>475</v>
+        <v>566</v>
       </c>
       <c r="V149" s="6" t="s">
-        <v>475</v>
+        <v>72</v>
       </c>
       <c r="W149" s="6" t="s">
-        <v>475</v>
+        <v>569</v>
       </c>
       <c r="X149" s="6" t="s">
-        <v>475</v>
+        <v>31</v>
       </c>
       <c r="Y149" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z149" s="6"/>
-      <c r="AA149" s="9"/>
-      <c r="AB149" s="9"/>
-    </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A150" s="7"/>
-      <c r="B150" s="6" t="s">
-        <v>473</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="Z149" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="AA149" s="7"/>
+      <c r="AB149" s="7"/>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A150" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="B150" s="6"/>
       <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="6">
-        <v>2</v>
-      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
       <c r="F150" s="6" t="s">
-        <v>476</v>
+        <v>559</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>475</v>
+        <v>572</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="I150" s="6" t="s">
-        <v>475</v>
+        <v>578</v>
+      </c>
+      <c r="I150" s="6">
+        <v>98</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L150" s="6" t="s">
-        <v>477</v>
+        <v>37</v>
+      </c>
+      <c r="L150" s="6">
+        <v>1.8</v>
       </c>
       <c r="M150" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="O150" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="P150" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="Q150" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="R150" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="S150" s="6" t="s">
-        <v>475</v>
+        <v>86</v>
       </c>
       <c r="T150" s="6" t="s">
-        <v>475</v>
+        <v>570</v>
       </c>
       <c r="U150" s="6" t="s">
-        <v>475</v>
+        <v>566</v>
       </c>
       <c r="V150" s="6" t="s">
-        <v>475</v>
+        <v>72</v>
       </c>
       <c r="W150" s="6" t="s">
-        <v>475</v>
+        <v>568</v>
       </c>
       <c r="X150" s="6" t="s">
-        <v>475</v>
+        <v>31</v>
       </c>
       <c r="Y150" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z150" s="6"/>
-      <c r="AA150" s="9"/>
-      <c r="AB150" s="9"/>
-    </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A151" s="7"/>
-      <c r="B151" s="6" t="s">
-        <v>473</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="Z150" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="AA150" s="7"/>
+      <c r="AB150" s="7"/>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A151" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="B151" s="6"/>
       <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="6">
-        <v>3</v>
-      </c>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
       <c r="F151" s="6" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>475</v>
+        <v>573</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="I151" s="6" t="s">
-        <v>475</v>
+        <v>579</v>
+      </c>
+      <c r="I151" s="6">
+        <v>99</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>479</v>
+        <v>36</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>480</v>
+        <v>37</v>
       </c>
       <c r="L151" s="6">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="M151" s="6" t="s">
-        <v>480</v>
+        <v>31</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="O151" s="6" t="s">
-        <v>480</v>
+        <v>31</v>
       </c>
       <c r="P151" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="Q151" s="6" t="s">
-        <v>480</v>
+        <v>31</v>
       </c>
       <c r="R151" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="S151" s="6" t="s">
-        <v>475</v>
+        <v>86</v>
       </c>
       <c r="T151" s="6" t="s">
-        <v>475</v>
+        <v>570</v>
       </c>
       <c r="U151" s="6" t="s">
-        <v>475</v>
+        <v>566</v>
       </c>
       <c r="V151" s="6" t="s">
-        <v>475</v>
+        <v>72</v>
       </c>
       <c r="W151" s="6" t="s">
-        <v>475</v>
+        <v>567</v>
       </c>
       <c r="X151" s="6" t="s">
-        <v>475</v>
+        <v>31</v>
       </c>
       <c r="Y151" s="6" t="s">
-        <v>475</v>
+        <v>72</v>
       </c>
       <c r="Z151" s="6">
-        <v>7</v>
-      </c>
-      <c r="AA151" s="9"/>
-      <c r="AB151" s="9"/>
-    </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A152" s="7"/>
-      <c r="B152" s="6" t="s">
-        <v>473</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="AA151" s="7"/>
+      <c r="AB151" s="7"/>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A152" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B152" s="6"/>
       <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="6">
-        <v>4</v>
-      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
       <c r="F152" s="6" t="s">
-        <v>481</v>
+        <v>557</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>475</v>
+        <v>574</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="I152" s="6" t="s">
-        <v>475</v>
+        <v>580</v>
+      </c>
+      <c r="I152" s="6">
+        <v>100</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="L152" s="6">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="M152" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="O152" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="P152" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="Q152" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="R152" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="S152" s="6" t="s">
-        <v>475</v>
+        <v>86</v>
       </c>
       <c r="T152" s="6" t="s">
-        <v>475</v>
+        <v>570</v>
       </c>
       <c r="U152" s="6" t="s">
-        <v>475</v>
+        <v>566</v>
       </c>
       <c r="V152" s="6" t="s">
-        <v>475</v>
+        <v>72</v>
       </c>
       <c r="W152" s="6" t="s">
-        <v>475</v>
+        <v>565</v>
       </c>
       <c r="X152" s="6" t="s">
-        <v>475</v>
+        <v>31</v>
       </c>
       <c r="Y152" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z152" s="6"/>
-      <c r="AA152" s="9"/>
-      <c r="AB152" s="9"/>
-    </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+      <c r="Z152" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="AA152" s="7"/>
+      <c r="AB152" s="7"/>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A153" s="7"/>
       <c r="B153" s="6" t="s">
         <v>473</v>
@@ -14733,10 +14820,10 @@
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G153" s="6" t="s">
         <v>475</v>
@@ -14748,28 +14835,28 @@
         <v>475</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>32</v>
+        <v>475</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="L153" s="6">
-        <v>5</v>
+        <v>475</v>
+      </c>
+      <c r="L153" s="6" t="s">
+        <v>475</v>
       </c>
       <c r="M153" s="6" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="N153" s="6" t="s">
         <v>475</v>
       </c>
       <c r="O153" s="6" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="P153" s="6" t="s">
         <v>475</v>
       </c>
       <c r="Q153" s="6" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="R153" s="6" t="s">
         <v>475</v>
@@ -14795,13 +14882,11 @@
       <c r="Y153" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="Z153" s="6">
-        <v>6</v>
-      </c>
+      <c r="Z153" s="6"/>
       <c r="AA153" s="9"/>
       <c r="AB153" s="9"/>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A154" s="7"/>
       <c r="B154" s="6" t="s">
         <v>473</v>
@@ -14809,10 +14894,10 @@
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>30</v>
+        <v>476</v>
       </c>
       <c r="G154" s="6" t="s">
         <v>475</v>
@@ -14827,25 +14912,25 @@
         <v>32</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M154" s="6" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="N154" s="6" t="s">
         <v>475</v>
       </c>
       <c r="O154" s="6" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="P154" s="6" t="s">
         <v>475</v>
       </c>
       <c r="Q154" s="6" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="R154" s="6" t="s">
         <v>475</v>
@@ -14875,7 +14960,7 @@
       <c r="AA154" s="9"/>
       <c r="AB154" s="9"/>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A155" s="7"/>
       <c r="B155" s="6" t="s">
         <v>473</v>
@@ -14883,73 +14968,75 @@
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="6">
+        <v>3</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L155" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="O155" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="P155" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q155" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="R155" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="S155" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="T155" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="U155" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="V155" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="W155" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="X155" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y155" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z155" s="6">
         <v>7</v>
       </c>
-      <c r="F155" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="H155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="I155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="J155" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="L155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="M155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="N155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="O155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="P155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="R155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="S155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="T155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="U155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="V155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="W155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="X155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="Y155" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z155" s="6"/>
       <c r="AA155" s="9"/>
       <c r="AB155" s="9"/>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A156" s="7"/>
       <c r="B156" s="6" t="s">
         <v>473</v>
@@ -14957,10 +15044,10 @@
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G156" s="6" t="s">
         <v>475</v>
@@ -14972,28 +15059,28 @@
         <v>475</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>475</v>
+        <v>32</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="L156" s="6" t="s">
-        <v>475</v>
+        <v>81</v>
+      </c>
+      <c r="L156" s="6">
+        <v>3.3</v>
       </c>
       <c r="M156" s="6" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="N156" s="6" t="s">
         <v>475</v>
       </c>
       <c r="O156" s="6" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="P156" s="6" t="s">
         <v>475</v>
       </c>
       <c r="Q156" s="6" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="R156" s="6" t="s">
         <v>475</v>
@@ -15023,57 +15110,57 @@
       <c r="AA156" s="9"/>
       <c r="AB156" s="9"/>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A157" s="7"/>
       <c r="B157" s="6" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>393</v>
+        <v>475</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>394</v>
+        <v>475</v>
       </c>
       <c r="I157" s="6" t="s">
         <v>475</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>486</v>
+        <v>32</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L157" s="6" t="s">
-        <v>487</v>
+        <v>480</v>
+      </c>
+      <c r="L157" s="6">
+        <v>5</v>
       </c>
       <c r="M157" s="6" t="s">
-        <v>93</v>
+        <v>480</v>
       </c>
       <c r="N157" s="6" t="s">
         <v>475</v>
       </c>
       <c r="O157" s="6" t="s">
-        <v>93</v>
+        <v>480</v>
       </c>
       <c r="P157" s="6" t="s">
         <v>475</v>
       </c>
       <c r="Q157" s="6" t="s">
-        <v>93</v>
+        <v>480</v>
       </c>
       <c r="R157" s="6" t="s">
         <v>475</v>
       </c>
       <c r="S157" s="6" t="s">
-        <v>86</v>
+        <v>475</v>
       </c>
       <c r="T157" s="6" t="s">
         <v>475</v>
@@ -15082,74 +15169,74 @@
         <v>475</v>
       </c>
       <c r="V157" s="6" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="W157" s="6" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="X157" s="6" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="Y157" s="6" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="Z157" s="6">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AA157" s="9"/>
       <c r="AB157" s="9"/>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A158" s="7"/>
       <c r="B158" s="6" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>489</v>
+        <v>30</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>396</v>
+        <v>475</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="I158" s="6" t="s">
         <v>475</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>486</v>
+        <v>32</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="M158" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="N158" s="6" t="s">
         <v>475</v>
       </c>
       <c r="O158" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="P158" s="6" t="s">
         <v>475</v>
       </c>
       <c r="Q158" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="R158" s="6" t="s">
         <v>475</v>
       </c>
       <c r="S158" s="6" t="s">
-        <v>86</v>
+        <v>475</v>
       </c>
       <c r="T158" s="6" t="s">
         <v>475</v>
@@ -15158,74 +15245,72 @@
         <v>475</v>
       </c>
       <c r="V158" s="6" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="W158" s="6" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="X158" s="6" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="Y158" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z158" s="6">
-        <v>7.5</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="Z158" s="6"/>
       <c r="AA158" s="9"/>
       <c r="AB158" s="9"/>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A159" s="7"/>
       <c r="B159" s="6" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>491</v>
+        <v>30</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>91</v>
+        <v>475</v>
       </c>
       <c r="I159" s="6" t="s">
         <v>475</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>486</v>
+        <v>32</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="M159" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="N159" s="6" t="s">
         <v>475</v>
       </c>
       <c r="O159" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="P159" s="6" t="s">
         <v>475</v>
       </c>
       <c r="Q159" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="R159" s="6" t="s">
         <v>475</v>
       </c>
       <c r="S159" s="6" t="s">
-        <v>86</v>
+        <v>475</v>
       </c>
       <c r="T159" s="6" t="s">
         <v>475</v>
@@ -15234,74 +15319,72 @@
         <v>475</v>
       </c>
       <c r="V159" s="6" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="W159" s="6" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="X159" s="6" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="Y159" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="Z159" s="6">
-        <v>7.5</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="Z159" s="6"/>
       <c r="AA159" s="9"/>
       <c r="AB159" s="9"/>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A160" s="7"/>
       <c r="B160" s="6" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>141</v>
+        <v>475</v>
       </c>
       <c r="I160" s="6" t="s">
         <v>475</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="M160" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="N160" s="6" t="s">
         <v>475</v>
       </c>
       <c r="O160" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="P160" s="6" t="s">
         <v>475</v>
       </c>
       <c r="Q160" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="R160" s="6" t="s">
         <v>475</v>
       </c>
       <c r="S160" s="6" t="s">
-        <v>86</v>
+        <v>475</v>
       </c>
       <c r="T160" s="6" t="s">
         <v>475</v>
@@ -15310,24 +15393,22 @@
         <v>475</v>
       </c>
       <c r="V160" s="6" t="s">
-        <v>139</v>
+        <v>475</v>
       </c>
       <c r="W160" s="6" t="s">
-        <v>139</v>
+        <v>475</v>
       </c>
       <c r="X160" s="6" t="s">
-        <v>139</v>
+        <v>475</v>
       </c>
       <c r="Y160" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z160" s="6">
-        <v>7.5</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="Z160" s="6"/>
       <c r="AA160" s="9"/>
       <c r="AB160" s="9"/>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A161" s="7"/>
       <c r="B161" s="6" t="s">
         <v>484</v>
@@ -15335,16 +15416,16 @@
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="I161" s="6" t="s">
         <v>475</v>
@@ -15386,24 +15467,24 @@
         <v>475</v>
       </c>
       <c r="V161" s="6" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="W161" s="6" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="X161" s="6" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="Y161" s="6" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="Z161" s="6">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="AA161" s="9"/>
       <c r="AB161" s="9"/>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A162" s="7"/>
       <c r="B162" s="6" t="s">
         <v>484</v>
@@ -15411,16 +15492,16 @@
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I162" s="6" t="s">
         <v>475</v>
@@ -15462,226 +15543,226 @@
         <v>475</v>
       </c>
       <c r="V162" s="6" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="W162" s="6" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="X162" s="6" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="Y162" s="6" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="Z162" s="6">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="AA162" s="9"/>
       <c r="AB162" s="9"/>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A163" s="7"/>
       <c r="B163" s="6" t="s">
-        <v>95</v>
+        <v>484</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>129</v>
+        <v>491</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>498</v>
+        <v>399</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I163" s="6">
-        <v>44</v>
+        <v>91</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>475</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>480</v>
+        <v>93</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="M163" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="N163" s="6" t="s">
-        <v>99</v>
+        <v>475</v>
       </c>
       <c r="O163" s="6" t="s">
         <v>93</v>
       </c>
       <c r="P163" s="6" t="s">
-        <v>99</v>
+        <v>475</v>
       </c>
       <c r="Q163" s="6" t="s">
         <v>93</v>
       </c>
       <c r="R163" s="6" t="s">
-        <v>99</v>
+        <v>475</v>
       </c>
       <c r="S163" s="6" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="T163" s="6" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="U163" s="6" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="V163" s="6" t="s">
-        <v>72</v>
+        <v>492</v>
       </c>
       <c r="W163" s="6" t="s">
-        <v>134</v>
+        <v>492</v>
       </c>
       <c r="X163" s="6" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="Y163" s="6" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="Z163" s="6">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA163" s="9"/>
       <c r="AB163" s="9"/>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A164" s="7"/>
       <c r="B164" s="6" t="s">
-        <v>95</v>
+        <v>484</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>135</v>
+        <v>493</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>136</v>
+        <v>401</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I164" s="6">
-        <v>45</v>
+        <v>141</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>475</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>480</v>
+        <v>93</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="M164" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="N164" s="6" t="s">
-        <v>99</v>
+        <v>475</v>
       </c>
       <c r="O164" s="6" t="s">
         <v>93</v>
       </c>
       <c r="P164" s="6" t="s">
-        <v>99</v>
+        <v>475</v>
       </c>
       <c r="Q164" s="6" t="s">
         <v>93</v>
       </c>
       <c r="R164" s="6" t="s">
-        <v>99</v>
+        <v>475</v>
       </c>
       <c r="S164" s="6" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="T164" s="6" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="U164" s="6" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="V164" s="6" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="W164" s="6" t="s">
-        <v>501</v>
+        <v>139</v>
       </c>
       <c r="X164" s="6" t="s">
-        <v>475</v>
+        <v>139</v>
       </c>
       <c r="Y164" s="6" t="s">
-        <v>475</v>
+        <v>139</v>
       </c>
       <c r="Z164" s="6">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA164" s="9"/>
       <c r="AB164" s="9"/>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A165" s="7"/>
       <c r="B165" s="6" t="s">
-        <v>95</v>
+        <v>484</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>475</v>
+        <v>403</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>475</v>
+        <v>404</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>475</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L165" s="6" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="M165" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N165" s="6" t="s">
-        <v>99</v>
+        <v>475</v>
       </c>
       <c r="O165" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="P165" s="6" t="s">
-        <v>99</v>
+        <v>475</v>
       </c>
       <c r="Q165" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="R165" s="6" t="s">
-        <v>99</v>
+        <v>475</v>
       </c>
       <c r="S165" s="6" t="s">
-        <v>475</v>
+        <v>86</v>
       </c>
       <c r="T165" s="6" t="s">
         <v>475</v>
@@ -15690,72 +15771,74 @@
         <v>475</v>
       </c>
       <c r="V165" s="6" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="W165" s="6" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="X165" s="6" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="Y165" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z165" s="6"/>
+        <v>495</v>
+      </c>
+      <c r="Z165" s="6">
+        <v>8.9</v>
+      </c>
       <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A166" s="7"/>
       <c r="B166" s="6" t="s">
-        <v>95</v>
+        <v>484</v>
       </c>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>30</v>
+        <v>496</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>475</v>
+        <v>406</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>475</v>
+        <v>407</v>
       </c>
       <c r="I166" s="6" t="s">
         <v>475</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="M166" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="N166" s="6" t="s">
         <v>475</v>
       </c>
       <c r="O166" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="P166" s="6" t="s">
         <v>475</v>
       </c>
       <c r="Q166" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="R166" s="6" t="s">
         <v>475</v>
       </c>
       <c r="S166" s="6" t="s">
-        <v>475</v>
+        <v>86</v>
       </c>
       <c r="T166" s="6" t="s">
         <v>475</v>
@@ -15764,22 +15847,24 @@
         <v>475</v>
       </c>
       <c r="V166" s="6" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="W166" s="6" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="X166" s="6" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="Y166" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z166" s="6"/>
+        <v>497</v>
+      </c>
+      <c r="Z166" s="6">
+        <v>8.9</v>
+      </c>
       <c r="AA166" s="9"/>
       <c r="AB166" s="9"/>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A167" s="7"/>
       <c r="B167" s="6" t="s">
         <v>95</v>
@@ -15787,19 +15872,19 @@
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>210</v>
+        <v>498</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>503</v>
+        <v>131</v>
       </c>
       <c r="I167" s="6">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J167" s="6" t="s">
         <v>479</v>
@@ -15814,40 +15899,40 @@
         <v>475</v>
       </c>
       <c r="N167" s="6" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="O167" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="P167" s="6" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="Q167" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="R167" s="6" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="S167" s="6" t="s">
         <v>39</v>
       </c>
       <c r="T167" s="6" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="U167" s="6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="V167" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W167" s="6" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="X167" s="6" t="s">
         <v>475</v>
       </c>
       <c r="Y167" s="6" t="s">
-        <v>72</v>
+        <v>475</v>
       </c>
       <c r="Z167" s="6">
         <v>7</v>
@@ -15855,7 +15940,7 @@
       <c r="AA167" s="9"/>
       <c r="AB167" s="9"/>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A168" s="7"/>
       <c r="B168" s="6" t="s">
         <v>95</v>
@@ -15863,19 +15948,19 @@
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>506</v>
+        <v>135</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>507</v>
+        <v>136</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>508</v>
+        <v>137</v>
       </c>
       <c r="I168" s="6">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="J168" s="6" t="s">
         <v>479</v>
@@ -15890,40 +15975,40 @@
         <v>475</v>
       </c>
       <c r="N168" s="6" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="O168" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="P168" s="6" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="Q168" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="R168" s="6" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="S168" s="6" t="s">
         <v>39</v>
       </c>
       <c r="T168" s="6" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="U168" s="6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="V168" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W168" s="6" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="X168" s="6" t="s">
         <v>475</v>
       </c>
       <c r="Y168" s="6" t="s">
-        <v>72</v>
+        <v>475</v>
       </c>
       <c r="Z168" s="6">
         <v>7</v>
@@ -15931,7 +16016,7 @@
       <c r="AA168" s="9"/>
       <c r="AB168" s="9"/>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A169" s="7"/>
       <c r="B169" s="6" t="s">
         <v>95</v>
@@ -15939,75 +16024,73 @@
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>220</v>
+        <v>475</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="I169" s="6">
-        <v>73</v>
+        <v>475</v>
+      </c>
+      <c r="I169" s="6" t="s">
+        <v>475</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>480</v>
+        <v>81</v>
       </c>
       <c r="L169" s="6" t="s">
         <v>477</v>
       </c>
       <c r="M169" s="6" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="N169" s="6" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="O169" s="6" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="P169" s="6" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="Q169" s="6" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="R169" s="6" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="S169" s="6" t="s">
-        <v>39</v>
+        <v>475</v>
       </c>
       <c r="T169" s="6" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="U169" s="6" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="V169" s="6" t="s">
-        <v>72</v>
+        <v>475</v>
       </c>
       <c r="W169" s="6" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="X169" s="6" t="s">
         <v>475</v>
       </c>
       <c r="Y169" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z169" s="6">
-        <v>7</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="Z169" s="6"/>
       <c r="AA169" s="9"/>
       <c r="AB169" s="9"/>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A170" s="7"/>
       <c r="B170" s="6" t="s">
         <v>95</v>
@@ -16015,75 +16098,73 @@
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>511</v>
+        <v>30</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>512</v>
+        <v>475</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="I170" s="6">
-        <v>71</v>
+        <v>475</v>
+      </c>
+      <c r="I170" s="6" t="s">
+        <v>475</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M170" s="6" t="s">
         <v>475</v>
       </c>
       <c r="N170" s="6" t="s">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="O170" s="6" t="s">
         <v>475</v>
       </c>
       <c r="P170" s="6" t="s">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="Q170" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R170" s="6" t="s">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="S170" s="6" t="s">
-        <v>39</v>
+        <v>475</v>
       </c>
       <c r="T170" s="6" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="U170" s="6" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="V170" s="6" t="s">
-        <v>72</v>
+        <v>475</v>
       </c>
       <c r="W170" s="6" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="X170" s="6" t="s">
         <v>475</v>
       </c>
       <c r="Y170" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z170" s="6">
-        <v>7</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="Z170" s="6"/>
       <c r="AA170" s="9"/>
       <c r="AB170" s="9"/>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A171" s="7"/>
       <c r="B171" s="6" t="s">
         <v>95</v>
@@ -16091,19 +16172,19 @@
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="I171" s="6">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="J171" s="6" t="s">
         <v>479</v>
@@ -16136,22 +16217,22 @@
         <v>39</v>
       </c>
       <c r="T171" s="6" t="s">
-        <v>230</v>
+        <v>504</v>
       </c>
       <c r="U171" s="6" t="s">
-        <v>231</v>
+        <v>505</v>
       </c>
       <c r="V171" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W171" s="6" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="X171" s="6" t="s">
-        <v>233</v>
+        <v>475</v>
       </c>
       <c r="Y171" s="6" t="s">
-        <v>475</v>
+        <v>72</v>
       </c>
       <c r="Z171" s="6">
         <v>7</v>
@@ -16159,7 +16240,7 @@
       <c r="AA171" s="9"/>
       <c r="AB171" s="9"/>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A172" s="7"/>
       <c r="B172" s="6" t="s">
         <v>95</v>
@@ -16167,19 +16248,19 @@
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>302</v>
+        <v>507</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="I172" s="6">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="J172" s="6" t="s">
         <v>479</v>
@@ -16212,19 +16293,19 @@
         <v>39</v>
       </c>
       <c r="T172" s="6" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="U172" s="6" t="s">
-        <v>305</v>
+        <v>505</v>
       </c>
       <c r="V172" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W172" s="6" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="X172" s="6" t="s">
-        <v>518</v>
+        <v>475</v>
       </c>
       <c r="Y172" s="6" t="s">
         <v>72</v>
@@ -16235,33 +16316,33 @@
       <c r="AA172" s="9"/>
       <c r="AB172" s="9"/>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A173" s="7"/>
       <c r="B173" s="6" t="s">
-        <v>519</v>
+        <v>95</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>413</v>
+        <v>509</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>409</v>
+        <v>220</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>410</v>
+        <v>510</v>
       </c>
       <c r="I173" s="6">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>36</v>
+        <v>479</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>37</v>
+        <v>480</v>
       </c>
       <c r="L173" s="6" t="s">
         <v>477</v>
@@ -16270,40 +16351,40 @@
         <v>475</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="O173" s="6" t="s">
         <v>475</v>
       </c>
       <c r="P173" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q173" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R173" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S173" s="6" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="T173" s="6" t="s">
-        <v>411</v>
+        <v>504</v>
       </c>
       <c r="U173" s="6" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="V173" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W173" s="6" t="s">
-        <v>411</v>
+        <v>509</v>
       </c>
       <c r="X173" s="6" t="s">
         <v>475</v>
       </c>
       <c r="Y173" s="6" t="s">
-        <v>475</v>
+        <v>72</v>
       </c>
       <c r="Z173" s="6">
         <v>7</v>
@@ -16311,33 +16392,33 @@
       <c r="AA173" s="9"/>
       <c r="AB173" s="9"/>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A174" s="7"/>
       <c r="B174" s="6" t="s">
-        <v>519</v>
+        <v>95</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>243</v>
+        <v>511</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="I174" s="6">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>36</v>
+        <v>479</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>37</v>
+        <v>480</v>
       </c>
       <c r="L174" s="6" t="s">
         <v>477</v>
@@ -16346,40 +16427,40 @@
         <v>475</v>
       </c>
       <c r="N174" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="O174" s="6" t="s">
         <v>475</v>
       </c>
       <c r="P174" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q174" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R174" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S174" s="6" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="T174" s="6" t="s">
-        <v>241</v>
+        <v>504</v>
       </c>
       <c r="U174" s="6" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="V174" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W174" s="6" t="s">
-        <v>243</v>
+        <v>511</v>
       </c>
       <c r="X174" s="6" t="s">
         <v>475</v>
       </c>
       <c r="Y174" s="6" t="s">
-        <v>475</v>
+        <v>72</v>
       </c>
       <c r="Z174" s="6">
         <v>7</v>
@@ -16387,33 +16468,33 @@
       <c r="AA174" s="9"/>
       <c r="AB174" s="9"/>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A175" s="7"/>
       <c r="B175" s="6" t="s">
-        <v>519</v>
+        <v>95</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="I175" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>36</v>
+        <v>479</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>37</v>
+        <v>480</v>
       </c>
       <c r="L175" s="6" t="s">
         <v>477</v>
@@ -16422,40 +16503,40 @@
         <v>475</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="O175" s="6" t="s">
         <v>475</v>
       </c>
       <c r="P175" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q175" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R175" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S175" s="6" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="T175" s="6" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="U175" s="6" t="s">
-        <v>523</v>
+        <v>231</v>
       </c>
       <c r="V175" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W175" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="X175" s="6" t="s">
-        <v>72</v>
+        <v>233</v>
       </c>
       <c r="Y175" s="6" t="s">
-        <v>31</v>
+        <v>475</v>
       </c>
       <c r="Z175" s="6">
         <v>7</v>
@@ -16463,33 +16544,33 @@
       <c r="AA175" s="9"/>
       <c r="AB175" s="9"/>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A176" s="7"/>
       <c r="B176" s="6" t="s">
-        <v>519</v>
+        <v>95</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>311</v>
+        <v>515</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="I176" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>36</v>
+        <v>479</v>
       </c>
       <c r="K176" s="6" t="s">
-        <v>37</v>
+        <v>480</v>
       </c>
       <c r="L176" s="6" t="s">
         <v>477</v>
@@ -16498,22 +16579,22 @@
         <v>475</v>
       </c>
       <c r="N176" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="O176" s="6" t="s">
         <v>475</v>
       </c>
       <c r="P176" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q176" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R176" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S176" s="6" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="T176" s="6" t="s">
         <v>517</v>
@@ -16525,10 +16606,10 @@
         <v>72</v>
       </c>
       <c r="W176" s="6" t="s">
-        <v>311</v>
+        <v>515</v>
       </c>
       <c r="X176" s="6" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Y176" s="6" t="s">
         <v>72</v>
@@ -16539,7 +16620,7 @@
       <c r="AA176" s="9"/>
       <c r="AB176" s="9"/>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A177" s="7"/>
       <c r="B177" s="6" t="s">
         <v>519</v>
@@ -16547,19 +16628,19 @@
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>253</v>
+        <v>413</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>527</v>
+        <v>409</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>528</v>
+        <v>410</v>
       </c>
       <c r="I177" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J177" s="6" t="s">
         <v>36</v>
@@ -16592,22 +16673,22 @@
         <v>86</v>
       </c>
       <c r="T177" s="6" t="s">
-        <v>529</v>
+        <v>411</v>
       </c>
       <c r="U177" s="6" t="s">
-        <v>231</v>
+        <v>520</v>
       </c>
       <c r="V177" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W177" s="6" t="s">
-        <v>253</v>
+        <v>411</v>
       </c>
       <c r="X177" s="6" t="s">
-        <v>254</v>
+        <v>475</v>
       </c>
       <c r="Y177" s="6" t="s">
-        <v>31</v>
+        <v>475</v>
       </c>
       <c r="Z177" s="6">
         <v>7</v>
@@ -16615,7 +16696,7 @@
       <c r="AA177" s="9"/>
       <c r="AB177" s="9"/>
     </row>
-    <row r="178" spans="1:28" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A178" s="7"/>
       <c r="B178" s="6" t="s">
         <v>519</v>
@@ -16623,19 +16704,19 @@
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>380</v>
+        <v>243</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>376</v>
+        <v>521</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>377</v>
+        <v>522</v>
       </c>
       <c r="I178" s="6">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J178" s="6" t="s">
         <v>36</v>
@@ -16668,22 +16749,22 @@
         <v>86</v>
       </c>
       <c r="T178" s="6" t="s">
-        <v>380</v>
+        <v>241</v>
       </c>
       <c r="U178" s="6" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="V178" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W178" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="X178" s="8" t="s">
-        <v>381</v>
+        <v>243</v>
+      </c>
+      <c r="X178" s="6" t="s">
+        <v>475</v>
       </c>
       <c r="Y178" s="6" t="s">
-        <v>382</v>
+        <v>475</v>
       </c>
       <c r="Z178" s="6">
         <v>7</v>
@@ -16691,7 +16772,7 @@
       <c r="AA178" s="9"/>
       <c r="AB178" s="9"/>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A179" s="7"/>
       <c r="B179" s="6" t="s">
         <v>519</v>
@@ -16699,19 +16780,19 @@
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>531</v>
+        <v>247</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>532</v>
+        <v>245</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="I179" s="6">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="J179" s="6" t="s">
         <v>36</v>
@@ -16744,22 +16825,22 @@
         <v>86</v>
       </c>
       <c r="T179" s="6" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="U179" s="6" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="V179" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W179" s="6" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="X179" s="6" t="s">
-        <v>475</v>
+        <v>72</v>
       </c>
       <c r="Y179" s="6" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="Z179" s="6">
         <v>7</v>
@@ -16767,7 +16848,7 @@
       <c r="AA179" s="9"/>
       <c r="AB179" s="9"/>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A180" s="7"/>
       <c r="B180" s="6" t="s">
         <v>519</v>
@@ -16775,19 +16856,19 @@
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>535</v>
+        <v>311</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>536</v>
+        <v>309</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I180" s="6">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="J180" s="6" t="s">
         <v>36</v>
@@ -16820,19 +16901,19 @@
         <v>86</v>
       </c>
       <c r="T180" s="6" t="s">
-        <v>258</v>
+        <v>517</v>
       </c>
       <c r="U180" s="6" t="s">
-        <v>534</v>
+        <v>305</v>
       </c>
       <c r="V180" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W180" s="6" t="s">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="X180" s="6" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="Y180" s="6" t="s">
         <v>72</v>
@@ -16843,187 +16924,203 @@
       <c r="AA180" s="9"/>
       <c r="AB180" s="9"/>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A181" s="7"/>
-      <c r="B181" s="7"/>
+      <c r="B181" s="6" t="s">
+        <v>519</v>
+      </c>
       <c r="C181" s="7"/>
-      <c r="D181" s="6" t="s">
-        <v>538</v>
-      </c>
+      <c r="D181" s="7"/>
       <c r="E181" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="6"/>
+        <v>253</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="I181" s="6">
+        <v>49</v>
+      </c>
       <c r="J181" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K181" s="6" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="L181" s="6" t="s">
-        <v>539</v>
+        <v>477</v>
       </c>
       <c r="M181" s="6" t="s">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="N181" s="6" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="O181" s="6" t="s">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="P181" s="6" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="Q181" s="6" t="s">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="R181" s="6" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="S181" s="6" t="s">
-        <v>475</v>
+        <v>86</v>
       </c>
       <c r="T181" s="6" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="U181" s="6" t="s">
-        <v>475</v>
+        <v>231</v>
       </c>
       <c r="V181" s="6" t="s">
-        <v>475</v>
+        <v>72</v>
       </c>
       <c r="W181" s="6" t="s">
-        <v>475</v>
+        <v>253</v>
       </c>
       <c r="X181" s="6" t="s">
-        <v>475</v>
+        <v>254</v>
       </c>
       <c r="Y181" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z181" s="6"/>
-      <c r="AA181" s="7"/>
-      <c r="AB181" s="7"/>
-    </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="Z181" s="6">
+        <v>7</v>
+      </c>
+      <c r="AA181" s="9"/>
+      <c r="AB181" s="9"/>
+    </row>
+    <row r="182" spans="1:28" ht="36" x14ac:dyDescent="0.45">
       <c r="A182" s="7"/>
-      <c r="B182" s="7"/>
+      <c r="B182" s="6" t="s">
+        <v>519</v>
+      </c>
       <c r="C182" s="7"/>
-      <c r="D182" s="6" t="s">
-        <v>538</v>
-      </c>
+      <c r="D182" s="7"/>
       <c r="E182" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G182" s="6"/>
-      <c r="H182" s="6"/>
-      <c r="I182" s="6"/>
+        <v>380</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H182" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I182" s="6">
+        <v>31</v>
+      </c>
       <c r="J182" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K182" s="6" t="s">
-        <v>475</v>
+        <v>37</v>
       </c>
       <c r="L182" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M182" s="6" t="s">
         <v>475</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="O182" s="6" t="s">
         <v>475</v>
       </c>
       <c r="P182" s="6" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="Q182" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R182" s="6" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="S182" s="6" t="s">
-        <v>475</v>
+        <v>86</v>
       </c>
       <c r="T182" s="6" t="s">
-        <v>475</v>
+        <v>380</v>
       </c>
       <c r="U182" s="6" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="V182" s="6" t="s">
-        <v>475</v>
+        <v>72</v>
       </c>
       <c r="W182" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="X182" s="6" t="s">
-        <v>475</v>
+        <v>380</v>
+      </c>
+      <c r="X182" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="Y182" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z182" s="6"/>
-      <c r="AA182" s="7"/>
-      <c r="AB182" s="7"/>
-    </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.4">
+        <v>382</v>
+      </c>
+      <c r="Z182" s="6">
+        <v>7</v>
+      </c>
+      <c r="AA182" s="9"/>
+      <c r="AB182" s="9"/>
+    </row>
+    <row r="183" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A183" s="7"/>
-      <c r="B183" s="7"/>
+      <c r="B183" s="6" t="s">
+        <v>519</v>
+      </c>
       <c r="C183" s="7"/>
-      <c r="D183" s="6" t="s">
-        <v>538</v>
-      </c>
+      <c r="D183" s="7"/>
       <c r="E183" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>406</v>
+        <v>532</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="I183" s="6" t="s">
-        <v>31</v>
+        <v>533</v>
+      </c>
+      <c r="I183" s="6">
+        <v>67</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="L183" s="6" t="s">
-        <v>540</v>
+        <v>477</v>
       </c>
       <c r="M183" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="O183" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="P183" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="Q183" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="R183" s="6" t="s">
         <v>38</v>
@@ -17032,74 +17129,74 @@
         <v>86</v>
       </c>
       <c r="T183" s="6" t="s">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="U183" s="6" t="s">
-        <v>31</v>
+        <v>534</v>
       </c>
       <c r="V183" s="6" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="W183" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X183" s="6" t="s">
-        <v>31</v>
+        <v>475</v>
       </c>
       <c r="Y183" s="6" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="Z183" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="AA183" s="7"/>
-      <c r="AB183" s="7"/>
-    </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="AA183" s="9"/>
+      <c r="AB183" s="9"/>
+    </row>
+    <row r="184" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A184" s="7"/>
-      <c r="B184" s="7"/>
+      <c r="B184" s="6" t="s">
+        <v>519</v>
+      </c>
       <c r="C184" s="7"/>
-      <c r="D184" s="6" t="s">
-        <v>538</v>
-      </c>
+      <c r="D184" s="7"/>
       <c r="E184" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>403</v>
+        <v>536</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="I184" s="6" t="s">
-        <v>31</v>
+        <v>537</v>
+      </c>
+      <c r="I184" s="6">
+        <v>68</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="L184" s="6" t="s">
-        <v>540</v>
+        <v>477</v>
       </c>
       <c r="M184" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="O184" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="P184" s="6" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="Q184" s="6" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="R184" s="6" t="s">
         <v>38</v>
@@ -17108,30 +17205,30 @@
         <v>86</v>
       </c>
       <c r="T184" s="6" t="s">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="U184" s="6" t="s">
-        <v>31</v>
+        <v>534</v>
       </c>
       <c r="V184" s="6" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="W184" s="6" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="X184" s="6" t="s">
-        <v>31</v>
+        <v>475</v>
       </c>
       <c r="Y184" s="6" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="Z184" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="AA184" s="7"/>
-      <c r="AB184" s="7"/>
-    </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="AA184" s="9"/>
+      <c r="AB184" s="9"/>
+    </row>
+    <row r="185" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -17139,10 +17236,10 @@
         <v>538</v>
       </c>
       <c r="E185" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
@@ -17153,26 +17250,26 @@
       <c r="K185" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="L185" s="6">
-        <v>3.3</v>
+      <c r="L185" s="6" t="s">
+        <v>539</v>
       </c>
       <c r="M185" s="6" t="s">
         <v>81</v>
       </c>
       <c r="N185" s="6" t="s">
-        <v>475</v>
+        <v>99</v>
       </c>
       <c r="O185" s="6" t="s">
         <v>81</v>
       </c>
       <c r="P185" s="6" t="s">
-        <v>475</v>
+        <v>99</v>
       </c>
       <c r="Q185" s="6" t="s">
         <v>81</v>
       </c>
       <c r="R185" s="6" t="s">
-        <v>475</v>
+        <v>99</v>
       </c>
       <c r="S185" s="6" t="s">
         <v>475</v>
@@ -17199,7 +17296,7 @@
       <c r="AA185" s="7"/>
       <c r="AB185" s="7"/>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -17207,7 +17304,7 @@
         <v>538</v>
       </c>
       <c r="E186" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>30</v>
@@ -17228,19 +17325,19 @@
         <v>475</v>
       </c>
       <c r="N186" s="6" t="s">
-        <v>475</v>
+        <v>99</v>
       </c>
       <c r="O186" s="6" t="s">
         <v>475</v>
       </c>
       <c r="P186" s="6" t="s">
-        <v>475</v>
+        <v>99</v>
       </c>
       <c r="Q186" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R186" s="6" t="s">
-        <v>475</v>
+        <v>99</v>
       </c>
       <c r="S186" s="6" t="s">
         <v>475</v>
@@ -17267,7 +17364,7 @@
       <c r="AA186" s="7"/>
       <c r="AB186" s="7"/>
     </row>
-    <row r="187" spans="1:28" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -17275,43 +17372,43 @@
         <v>538</v>
       </c>
       <c r="E187" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>380</v>
+        <v>496</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="I187" s="6">
+        <v>407</v>
+      </c>
+      <c r="I187" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="K187" s="6" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="L187" s="6" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="M187" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="N187" s="6" t="s">
-        <v>38</v>
+        <v>475</v>
       </c>
       <c r="O187" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="P187" s="6" t="s">
-        <v>38</v>
+        <v>475</v>
       </c>
       <c r="Q187" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="R187" s="6" t="s">
         <v>38</v>
@@ -17320,30 +17417,30 @@
         <v>86</v>
       </c>
       <c r="T187" s="6" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="U187" s="6" t="s">
-        <v>530</v>
+        <v>31</v>
       </c>
       <c r="V187" s="6" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="W187" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="X187" s="8" t="s">
-        <v>381</v>
+        <v>31</v>
+      </c>
+      <c r="X187" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="Y187" s="6" t="s">
-        <v>382</v>
+        <v>31</v>
       </c>
       <c r="Z187" s="6">
-        <v>7</v>
+        <v>8.9</v>
       </c>
       <c r="AA187" s="7"/>
       <c r="AB187" s="7"/>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -17351,43 +17448,43 @@
         <v>538</v>
       </c>
       <c r="E188" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="I188" s="6">
-        <v>41</v>
+        <v>404</v>
+      </c>
+      <c r="I188" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="K188" s="6" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="L188" s="6" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="M188" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="N188" s="6" t="s">
-        <v>38</v>
+        <v>475</v>
       </c>
       <c r="O188" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="P188" s="6" t="s">
-        <v>38</v>
+        <v>475</v>
       </c>
       <c r="Q188" s="6" t="s">
-        <v>475</v>
+        <v>93</v>
       </c>
       <c r="R188" s="6" t="s">
         <v>38</v>
@@ -17396,16 +17493,16 @@
         <v>86</v>
       </c>
       <c r="T188" s="6" t="s">
-        <v>417</v>
+        <v>31</v>
       </c>
       <c r="U188" s="6" t="s">
-        <v>418</v>
+        <v>31</v>
       </c>
       <c r="V188" s="6" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="W188" s="6" t="s">
-        <v>423</v>
+        <v>31</v>
       </c>
       <c r="X188" s="6" t="s">
         <v>31</v>
@@ -17414,12 +17511,12 @@
         <v>31</v>
       </c>
       <c r="Z188" s="6">
-        <v>7</v>
+        <v>8.9</v>
       </c>
       <c r="AA188" s="7"/>
       <c r="AB188" s="7"/>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -17427,61 +17524,55 @@
         <v>538</v>
       </c>
       <c r="E189" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="G189" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="H189" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="I189" s="6">
-        <v>46</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
       <c r="J189" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K189" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L189" s="6" t="s">
-        <v>477</v>
+        <v>81</v>
+      </c>
+      <c r="L189" s="6">
+        <v>3.3</v>
       </c>
       <c r="M189" s="6" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="N189" s="6" t="s">
-        <v>38</v>
+        <v>475</v>
       </c>
       <c r="O189" s="6" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="P189" s="6" t="s">
-        <v>38</v>
+        <v>475</v>
       </c>
       <c r="Q189" s="6" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="R189" s="6" t="s">
-        <v>38</v>
+        <v>475</v>
       </c>
       <c r="S189" s="6" t="s">
-        <v>86</v>
+        <v>475</v>
       </c>
       <c r="T189" s="6" t="s">
-        <v>241</v>
+        <v>475</v>
       </c>
       <c r="U189" s="6" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="V189" s="6" t="s">
-        <v>72</v>
+        <v>475</v>
       </c>
       <c r="W189" s="6" t="s">
-        <v>243</v>
+        <v>475</v>
       </c>
       <c r="X189" s="6" t="s">
         <v>475</v>
@@ -17489,13 +17580,11 @@
       <c r="Y189" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="Z189" s="6">
-        <v>7</v>
-      </c>
+      <c r="Z189" s="6"/>
       <c r="AA189" s="7"/>
       <c r="AB189" s="7"/>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -17503,75 +17592,67 @@
         <v>538</v>
       </c>
       <c r="E190" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="G190" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="H190" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="I190" s="6">
-        <v>43</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6"/>
       <c r="J190" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K190" s="6" t="s">
-        <v>37</v>
+        <v>475</v>
       </c>
       <c r="L190" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M190" s="6" t="s">
         <v>475</v>
       </c>
       <c r="N190" s="6" t="s">
-        <v>38</v>
+        <v>475</v>
       </c>
       <c r="O190" s="6" t="s">
         <v>475</v>
       </c>
       <c r="P190" s="6" t="s">
-        <v>38</v>
+        <v>475</v>
       </c>
       <c r="Q190" s="6" t="s">
         <v>475</v>
       </c>
       <c r="R190" s="6" t="s">
-        <v>38</v>
+        <v>475</v>
       </c>
       <c r="S190" s="6" t="s">
-        <v>86</v>
+        <v>475</v>
       </c>
       <c r="T190" s="6" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="U190" s="6" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="V190" s="6" t="s">
-        <v>72</v>
+        <v>475</v>
       </c>
       <c r="W190" s="6" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="X190" s="6" t="s">
-        <v>31</v>
+        <v>475</v>
       </c>
       <c r="Y190" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z190" s="6">
-        <v>7</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="Z190" s="6"/>
       <c r="AA190" s="7"/>
       <c r="AB190" s="7"/>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:28" ht="36" x14ac:dyDescent="0.45">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -17579,19 +17660,19 @@
         <v>538</v>
       </c>
       <c r="E191" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>544</v>
+        <v>380</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>245</v>
+        <v>376</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>524</v>
+        <v>377</v>
       </c>
       <c r="I191" s="6">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J191" s="6" t="s">
         <v>36</v>
@@ -17624,22 +17705,22 @@
         <v>86</v>
       </c>
       <c r="T191" s="6" t="s">
-        <v>241</v>
+        <v>380</v>
       </c>
       <c r="U191" s="6" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="V191" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W191" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="X191" s="6" t="s">
-        <v>72</v>
+        <v>380</v>
+      </c>
+      <c r="X191" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="Y191" s="6" t="s">
-        <v>31</v>
+        <v>382</v>
       </c>
       <c r="Z191" s="6">
         <v>7</v>
@@ -17647,7 +17728,7 @@
       <c r="AA191" s="7"/>
       <c r="AB191" s="7"/>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -17655,19 +17736,19 @@
         <v>538</v>
       </c>
       <c r="E192" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="I192" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J192" s="6" t="s">
         <v>36</v>
@@ -17709,7 +17790,7 @@
         <v>72</v>
       </c>
       <c r="W192" s="6" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="X192" s="6" t="s">
         <v>31</v>
@@ -17723,7 +17804,7 @@
       <c r="AA192" s="7"/>
       <c r="AB192" s="7"/>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -17731,19 +17812,19 @@
         <v>538</v>
       </c>
       <c r="E193" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>232</v>
+        <v>542</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>228</v>
+        <v>521</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>229</v>
+        <v>522</v>
       </c>
       <c r="I193" s="6">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J193" s="6" t="s">
         <v>36</v>
@@ -17773,25 +17854,25 @@
         <v>38</v>
       </c>
       <c r="S193" s="6" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="T193" s="6" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="U193" s="6" t="s">
-        <v>231</v>
+        <v>523</v>
       </c>
       <c r="V193" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W193" s="6" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="X193" s="6" t="s">
-        <v>233</v>
+        <v>475</v>
       </c>
       <c r="Y193" s="6" t="s">
-        <v>31</v>
+        <v>475</v>
       </c>
       <c r="Z193" s="6">
         <v>7</v>
@@ -17799,7 +17880,7 @@
       <c r="AA193" s="7"/>
       <c r="AB193" s="7"/>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -17807,19 +17888,19 @@
         <v>538</v>
       </c>
       <c r="E194" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>433</v>
+        <v>543</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I194" s="6">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J194" s="6" t="s">
         <v>36</v>
@@ -17852,16 +17933,16 @@
         <v>86</v>
       </c>
       <c r="T194" s="6" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="U194" s="6" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="V194" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W194" s="6" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="X194" s="6" t="s">
         <v>31</v>
@@ -17875,7 +17956,7 @@
       <c r="AA194" s="7"/>
       <c r="AB194" s="7"/>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -17883,19 +17964,19 @@
         <v>538</v>
       </c>
       <c r="E195" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>527</v>
+        <v>245</v>
       </c>
       <c r="H195" s="6" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I195" s="6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J195" s="6" t="s">
         <v>36</v>
@@ -17928,19 +18009,19 @@
         <v>86</v>
       </c>
       <c r="T195" s="6" t="s">
-        <v>529</v>
+        <v>241</v>
       </c>
       <c r="U195" s="6" t="s">
-        <v>231</v>
+        <v>523</v>
       </c>
       <c r="V195" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W195" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="X195" s="6" t="s">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="Y195" s="6" t="s">
         <v>31</v>
@@ -17951,7 +18032,7 @@
       <c r="AA195" s="7"/>
       <c r="AB195" s="7"/>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -17959,19 +18040,19 @@
         <v>538</v>
       </c>
       <c r="E196" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>413</v>
+        <v>545</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H196" s="6" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="I196" s="6">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J196" s="6" t="s">
         <v>36</v>
@@ -18004,32 +18085,415 @@
         <v>86</v>
       </c>
       <c r="T196" s="6" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="U196" s="6" t="s">
-        <v>520</v>
+        <v>418</v>
       </c>
       <c r="V196" s="6" t="s">
         <v>72</v>
       </c>
       <c r="W196" s="6" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="X196" s="6" t="s">
-        <v>475</v>
+        <v>31</v>
       </c>
       <c r="Y196" s="6" t="s">
-        <v>475</v>
+        <v>31</v>
       </c>
       <c r="Z196" s="6">
         <v>7</v>
       </c>
       <c r="AA196" s="7"/>
       <c r="AB196" s="7"/>
+    </row>
+    <row r="197" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A197" s="7"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E197" s="6">
+        <v>13</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I197" s="6">
+        <v>48</v>
+      </c>
+      <c r="J197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K197" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L197" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M197" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="N197" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O197" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="P197" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q197" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="R197" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S197" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T197" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="U197" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="V197" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="W197" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="X197" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y197" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z197" s="6">
+        <v>7</v>
+      </c>
+      <c r="AA197" s="7"/>
+      <c r="AB197" s="7"/>
+    </row>
+    <row r="198" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A198" s="7"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E198" s="6">
+        <v>14</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="I198" s="6">
+        <v>38</v>
+      </c>
+      <c r="J198" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K198" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L198" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M198" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="N198" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O198" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="P198" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q198" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="R198" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S198" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T198" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="U198" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="V198" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="W198" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="X198" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y198" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z198" s="6">
+        <v>7</v>
+      </c>
+      <c r="AA198" s="7"/>
+      <c r="AB198" s="7"/>
+    </row>
+    <row r="199" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A199" s="7"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E199" s="6">
+        <v>15</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="H199" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="I199" s="6">
+        <v>49</v>
+      </c>
+      <c r="J199" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K199" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L199" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M199" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="N199" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O199" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="P199" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q199" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="R199" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S199" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T199" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="U199" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="V199" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="W199" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="X199" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y199" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z199" s="6">
+        <v>7</v>
+      </c>
+      <c r="AA199" s="7"/>
+      <c r="AB199" s="7"/>
+    </row>
+    <row r="200" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A200" s="7"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E200" s="6">
+        <v>16</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="G200" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="H200" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="I200" s="6">
+        <v>39</v>
+      </c>
+      <c r="J200" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K200" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L200" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M200" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="N200" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O200" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="P200" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q200" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="R200" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S200" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T200" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="U200" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="V200" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="W200" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="X200" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y200" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z200" s="6">
+        <v>7</v>
+      </c>
+      <c r="AA200" s="7"/>
+      <c r="AB200" s="7"/>
+    </row>
+    <row r="201" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A201" s="7"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="E201" s="6">
+        <v>81</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="H201" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="I201" s="6">
+        <v>89</v>
+      </c>
+      <c r="J201" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K201" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L201" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="M201" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N201" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O201" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P201" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q201" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R201" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S201" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T201" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="U201" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="V201" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="W201" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="X201" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y201" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z201" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="AA201" s="7"/>
+      <c r="AB201" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A2:AB2" xr:uid="{63397F36-E61B-4D89-81D6-261292303536}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A149:AB152">
+    <sortCondition ref="G149:G152"/>
+  </sortState>
   <mergeCells count="18">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="V1:Y1"/>
@@ -18058,19 +18522,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E54AD63-6361-4A38-9753-A2A5747D86C5}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="53.75" customWidth="1"/>
+    <col min="2" max="2" width="53.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
         <v>547</v>
       </c>
@@ -18078,7 +18542,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
         <v>549</v>
       </c>
@@ -18086,7 +18550,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
         <v>551</v>
       </c>
@@ -18094,20 +18558,28 @@
         <v>552</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:2" ht="36" x14ac:dyDescent="0.45">
+      <c r="A4" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="15" t="s">
         <v>556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -18118,6 +18590,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x627f__x8a8d__x30b9__x30c6__x30fc__x30bf__x30b9_ xmlns="772cb803-790f-49e5-ae21-b0b76cdc7deb" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6869bb2-688a-49bd-86e8-afa34b0b6978" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="772cb803-790f-49e5-ae21-b0b76cdc7deb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101000E1C99B57DDC914C96DE4E3015D3057C" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="df6984261b8892d720167cca9f7a4578">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="772cb803-790f-49e5-ae21-b0b76cdc7deb" xmlns:ns3="f6869bb2-688a-49bd-86e8-afa34b0b6978" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfeab6aaf4348258d75cd220cbb3ee5f" ns2:_="" ns3:_="">
     <xsd:import namespace="772cb803-790f-49e5-ae21-b0b76cdc7deb"/>
@@ -18346,28 +18839,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE65096-025D-4822-BC2D-C88CE12CADD2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x627f__x8a8d__x30b9__x30c6__x30fc__x30bf__x30b9_ xmlns="772cb803-790f-49e5-ae21-b0b76cdc7deb" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6869bb2-688a-49bd-86e8-afa34b0b6978" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="772cb803-790f-49e5-ae21-b0b76cdc7deb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F9652DD-3628-4B8B-848A-DA0ACAAE3DF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="772cb803-790f-49e5-ae21-b0b76cdc7deb"/>
+    <ds:schemaRef ds:uri="f6869bb2-688a-49bd-86e8-afa34b0b6978"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1764EC1D-2706-45E8-8A98-4E3CEA301DD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18384,23 +18875,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE65096-025D-4822-BC2D-C88CE12CADD2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F9652DD-3628-4B8B-848A-DA0ACAAE3DF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="772cb803-790f-49e5-ae21-b0b76cdc7deb"/>
-    <ds:schemaRef ds:uri="f6869bb2-688a-49bd-86e8-afa34b0b6978"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>